--- a/tests/test1/d10/N, 0.3.xlsx
+++ b/tests/test1/d10/N, 0.3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,13 +532,13 @@
         <v>359.4707842962097</v>
       </c>
       <c r="F2" t="n">
-        <v>9.958831119280076</v>
+        <v>9.958831119277152</v>
       </c>
       <c r="G2" t="n">
-        <v>98.1443403210934</v>
+        <v>98.14434032109089</v>
       </c>
       <c r="H2" t="n">
-        <v>11.80694638310278</v>
+        <v>11.80694638309837</v>
       </c>
       <c r="I2" t="n">
         <v>70.56128143157282</v>
@@ -547,16 +547,16 @@
         <v>15.80711097780685</v>
       </c>
       <c r="K2" t="n">
-        <v>70.54626431444913</v>
+        <v>70.54626431444834</v>
       </c>
       <c r="L2" t="n">
-        <v>16.01838666625583</v>
+        <v>16.01838666625049</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1155126967253613</v>
+        <v>0.1155126967254446</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0905782084178547</v>
+        <v>0.09057820841660269</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.001240400000000363</v>
+        <v>0.0002372000000008256</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.512696390901</v>
       </c>
       <c r="F3" t="n">
-        <v>9.683323158481155</v>
+        <v>9.683323158480793</v>
       </c>
       <c r="G3" t="n">
-        <v>74.14443193635282</v>
+        <v>74.14443193635235</v>
       </c>
       <c r="H3" t="n">
-        <v>11.55039579305679</v>
+        <v>11.55039579305627</v>
       </c>
       <c r="I3" t="n">
         <v>53.17592866838513</v>
@@ -599,16 +599,16 @@
         <v>18.32782196423818</v>
       </c>
       <c r="K3" t="n">
-        <v>53.03473099056097</v>
+        <v>53.03473099056084</v>
       </c>
       <c r="L3" t="n">
-        <v>18.04909509937748</v>
+        <v>18.04909509937671</v>
       </c>
       <c r="M3" t="n">
-        <v>0.115908736968478</v>
+        <v>0.1159087369684893</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1037085653548835</v>
+        <v>0.1037085653551123</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003391000000050326</v>
+        <v>0.0003502999999973611</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.1250273542216417</v>
       </c>
       <c r="F4" t="n">
-        <v>9.909889433184432</v>
+        <v>9.909889433184201</v>
       </c>
       <c r="G4" t="n">
-        <v>80.23709363592106</v>
+        <v>80.23709363592033</v>
       </c>
       <c r="H4" t="n">
-        <v>3.132529489272672</v>
+        <v>3.132529489272536</v>
       </c>
       <c r="I4" t="n">
         <v>31.7678424560353</v>
@@ -651,16 +651,16 @@
         <v>9.618122158119826</v>
       </c>
       <c r="K4" t="n">
-        <v>31.6918105336973</v>
+        <v>31.6918105336971</v>
       </c>
       <c r="L4" t="n">
-        <v>9.320786461152609</v>
+        <v>9.320786461152341</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09673704303515701</v>
+        <v>0.09673704303516158</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2493195196117562</v>
+        <v>0.2493195196119373</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003404999999929714</v>
+        <v>0.00024219999999886</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.4634114579709</v>
       </c>
       <c r="F5" t="n">
-        <v>9.819516250550866</v>
+        <v>9.819516250550739</v>
       </c>
       <c r="G5" t="n">
-        <v>98.29653099571026</v>
+        <v>98.29653099571021</v>
       </c>
       <c r="H5" t="n">
-        <v>11.51409715688578</v>
+        <v>11.51409715688557</v>
       </c>
       <c r="I5" t="n">
         <v>70.66253786388728</v>
@@ -703,16 +703,16 @@
         <v>15.67687823027242</v>
       </c>
       <c r="K5" t="n">
-        <v>70.55020711527115</v>
+        <v>70.55020711527112</v>
       </c>
       <c r="L5" t="n">
-        <v>15.64352871923543</v>
+        <v>15.64352871923518</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1361733154244286</v>
+        <v>0.1361733154244344</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05635471056599691</v>
+        <v>0.05635471056598693</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.001083100000002446</v>
+        <v>0.0002227999999995234</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9848314878572</v>
       </c>
       <c r="F6" t="n">
-        <v>9.924441714146068</v>
+        <v>9.924441714145736</v>
       </c>
       <c r="G6" t="n">
-        <v>174.1264342183188</v>
+        <v>174.1264342183191</v>
       </c>
       <c r="H6" t="n">
-        <v>9.470298445801747</v>
+        <v>9.470298445801335</v>
       </c>
       <c r="I6" t="n">
         <v>149.7044734839228</v>
@@ -755,16 +755,16 @@
         <v>4.673171010711503</v>
       </c>
       <c r="K6" t="n">
-        <v>149.7497451423229</v>
+        <v>149.7497451423231</v>
       </c>
       <c r="L6" t="n">
-        <v>4.626608023104652</v>
+        <v>4.626608023104461</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08633506545800393</v>
+        <v>0.086335065458014</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05466544625275443</v>
+        <v>0.05466544625300199</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003245000000049458</v>
+        <v>0.0002221999999996171</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.8676317539345</v>
       </c>
       <c r="F7" t="n">
-        <v>9.756282039791005</v>
+        <v>9.756282039792968</v>
       </c>
       <c r="G7" t="n">
-        <v>39.66483688089879</v>
+        <v>39.66483688090088</v>
       </c>
       <c r="H7" t="n">
-        <v>13.20279049821342</v>
+        <v>13.20279049821698</v>
       </c>
       <c r="I7" t="n">
         <v>30.28257116656484</v>
@@ -807,16 +807,16 @@
         <v>22.87529985576693</v>
       </c>
       <c r="K7" t="n">
-        <v>30.21516174658719</v>
+        <v>30.2151617465879</v>
       </c>
       <c r="L7" t="n">
-        <v>22.37592325461154</v>
+        <v>22.37592325461735</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09031871352840809</v>
+        <v>0.09031871352835937</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1063131816663625</v>
+        <v>0.1063131816650487</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003139000000089709</v>
+        <v>0.0001895000000011748</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.09353510204625504</v>
       </c>
       <c r="F8" t="n">
-        <v>9.600456370581734</v>
+        <v>9.60045637058631</v>
       </c>
       <c r="G8" t="n">
-        <v>161.598027936333</v>
+        <v>161.598027936326</v>
       </c>
       <c r="H8" t="n">
-        <v>6.568489690168498</v>
+        <v>6.568489690173164</v>
       </c>
       <c r="I8" t="n">
         <v>97.61618025069936</v>
@@ -859,16 +859,16 @@
         <v>3.973338297383755</v>
       </c>
       <c r="K8" t="n">
-        <v>97.67327816728604</v>
+        <v>97.67327816728717</v>
       </c>
       <c r="L8" t="n">
-        <v>3.707588514767808</v>
+        <v>3.707588514770529</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08716964715053509</v>
+        <v>0.08716964715045647</v>
       </c>
       <c r="N8" t="n">
-        <v>0.296481500624046</v>
+        <v>0.2964815006213363</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0004527000000109638</v>
+        <v>0.0002963000000022475</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.4928422888599</v>
       </c>
       <c r="F9" t="n">
-        <v>9.203581940647194</v>
+        <v>9.203581940647069</v>
       </c>
       <c r="G9" t="n">
-        <v>13.21615872449651</v>
+        <v>13.21615872449635</v>
       </c>
       <c r="H9" t="n">
-        <v>12.86395230246921</v>
+        <v>12.86395230246949</v>
       </c>
       <c r="I9" t="n">
         <v>12.15137765332865</v>
@@ -911,16 +911,16 @@
         <v>22.28974380606835</v>
       </c>
       <c r="K9" t="n">
-        <v>12.06050953046647</v>
+        <v>12.06050953046646</v>
       </c>
       <c r="L9" t="n">
-        <v>22.1026115681485</v>
+        <v>22.10261156814871</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1134701503460092</v>
+        <v>0.1134701503460055</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1518300261000545</v>
+        <v>0.151830026100106</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0005277000000063481</v>
+        <v>0.000221899999999664</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9726385850141</v>
       </c>
       <c r="F10" t="n">
-        <v>9.733539406966431</v>
+        <v>9.733539406968408</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2686693158076</v>
+        <v>157.268669315807</v>
       </c>
       <c r="H10" t="n">
-        <v>14.15903044075972</v>
+        <v>14.15903044076319</v>
       </c>
       <c r="I10" t="n">
         <v>137.8318815863209</v>
@@ -963,16 +963,16 @@
         <v>11.86534188679525</v>
       </c>
       <c r="K10" t="n">
-        <v>137.8919856443852</v>
+        <v>137.8919856443846</v>
       </c>
       <c r="L10" t="n">
-        <v>11.53004063350317</v>
+        <v>11.53004063350569</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1025674492949071</v>
+        <v>0.102567449294837</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1426456820607727</v>
+        <v>0.1426456820596609</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003355999999996584</v>
+        <v>0.0001961000000001434</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9996674335863</v>
       </c>
       <c r="F11" t="n">
-        <v>9.98361506092157</v>
+        <v>9.983615060921462</v>
       </c>
       <c r="G11" t="n">
-        <v>1.596905632040593</v>
+        <v>1.596905632040517</v>
       </c>
       <c r="H11" t="n">
-        <v>8.665296402373418</v>
+        <v>8.665296402373478</v>
       </c>
       <c r="I11" t="n">
         <v>4.782971926670573</v>
@@ -1015,16 +1015,16 @@
         <v>18.26849864379155</v>
       </c>
       <c r="K11" t="n">
-        <v>4.699702416165675</v>
+        <v>4.699702416165636</v>
       </c>
       <c r="L11" t="n">
-        <v>17.82148895878318</v>
+        <v>17.82148895878314</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09584223181472912</v>
+        <v>0.09584223181472996</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1673343741919234</v>
+        <v>0.1673343741919262</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.000336099999998396</v>
+        <v>0.0001888000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.6005240487611</v>
       </c>
       <c r="F12" t="n">
-        <v>10.04555333664283</v>
+        <v>10.04555333664332</v>
       </c>
       <c r="G12" t="n">
-        <v>133.911078248715</v>
+        <v>133.9110782487157</v>
       </c>
       <c r="H12" t="n">
-        <v>3.298758979325265</v>
+        <v>3.298758979325596</v>
       </c>
       <c r="I12" t="n">
         <v>40.03006317522596</v>
@@ -1067,16 +1067,16 @@
         <v>5.809547132347129</v>
       </c>
       <c r="K12" t="n">
-        <v>40.15916563742651</v>
+        <v>40.1591656374272</v>
       </c>
       <c r="L12" t="n">
-        <v>6.128257506812913</v>
+        <v>6.128257506813215</v>
       </c>
       <c r="M12" t="n">
-        <v>0.09679584645655931</v>
+        <v>0.09679584645655376</v>
       </c>
       <c r="N12" t="n">
-        <v>0.285144134797189</v>
+        <v>0.2851441347976916</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003627999999906706</v>
+        <v>0.0001952999999978999</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.4751635776084</v>
       </c>
       <c r="F13" t="n">
-        <v>9.528001276137019</v>
+        <v>9.528001276136916</v>
       </c>
       <c r="G13" t="n">
-        <v>28.96486723579771</v>
+        <v>28.96486723579747</v>
       </c>
       <c r="H13" t="n">
-        <v>3.916566341202673</v>
+        <v>3.916566341202542</v>
       </c>
       <c r="I13" t="n">
         <v>16.97012183948808</v>
@@ -1119,16 +1119,16 @@
         <v>11.14346017967418</v>
       </c>
       <c r="K13" t="n">
-        <v>16.94798343995214</v>
+        <v>16.94798343995204</v>
       </c>
       <c r="L13" t="n">
-        <v>11.52372032653039</v>
+        <v>11.52372032653014</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1193791343101124</v>
+        <v>0.1193791343101174</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6774268160333581</v>
+        <v>0.6774268160332473</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003145999999958349</v>
+        <v>0.0002623000000028242</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.858104250553</v>
       </c>
       <c r="F14" t="n">
-        <v>9.783205112225192</v>
+        <v>9.783205112225842</v>
       </c>
       <c r="G14" t="n">
-        <v>27.42381121103396</v>
+        <v>27.42381121103463</v>
       </c>
       <c r="H14" t="n">
-        <v>11.93215346623177</v>
+        <v>11.93215346623313</v>
       </c>
       <c r="I14" t="n">
         <v>21.32604566380087</v>
@@ -1171,16 +1171,16 @@
         <v>21.47093508922593</v>
       </c>
       <c r="K14" t="n">
-        <v>21.27862575144283</v>
+        <v>21.27862575144312</v>
       </c>
       <c r="L14" t="n">
-        <v>21.33050378090061</v>
+        <v>21.33050378090281</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09585009975659593</v>
+        <v>0.0958500997565748</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04174238805363661</v>
+        <v>0.04174238805366282</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003242000000085454</v>
+        <v>0.000211400000001305</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.213717198615172</v>
       </c>
       <c r="F15" t="n">
-        <v>9.627654149244295</v>
+        <v>9.627654149244211</v>
       </c>
       <c r="G15" t="n">
-        <v>141.3211094772346</v>
+        <v>141.3211094772348</v>
       </c>
       <c r="H15" t="n">
-        <v>5.469085648892913</v>
+        <v>5.469085648892835</v>
       </c>
       <c r="I15" t="n">
         <v>70.55697937574554</v>
@@ -1223,16 +1223,16 @@
         <v>6.028251123835125</v>
       </c>
       <c r="K15" t="n">
-        <v>70.42135242098331</v>
+        <v>70.42135242098325</v>
       </c>
       <c r="L15" t="n">
-        <v>5.633606951814421</v>
+        <v>5.633606951814346</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08514668786593722</v>
+        <v>0.08514668786593904</v>
       </c>
       <c r="N15" t="n">
-        <v>0.339364778980729</v>
+        <v>0.3393647789808018</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0002916999999911241</v>
+        <v>0.0001879000000002407</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.5345982666241</v>
       </c>
       <c r="F16" t="n">
-        <v>9.674126878637844</v>
+        <v>9.67412687863772</v>
       </c>
       <c r="G16" t="n">
-        <v>91.59534032842173</v>
+        <v>91.59534032842188</v>
       </c>
       <c r="H16" t="n">
-        <v>12.0892897467782</v>
+        <v>12.08928974677792</v>
       </c>
       <c r="I16" t="n">
         <v>67.01959217131787</v>
@@ -1275,16 +1275,16 @@
         <v>17.25965100693092</v>
       </c>
       <c r="K16" t="n">
-        <v>66.89249849709978</v>
+        <v>66.89249849709981</v>
       </c>
       <c r="L16" t="n">
-        <v>16.95358241173037</v>
+        <v>16.95358241173</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1276379050267621</v>
+        <v>0.1276379050267729</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1226108514753126</v>
+        <v>0.1226108514753945</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0002909999999900492</v>
+        <v>0.000181399999998888</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.09369854446306079</v>
       </c>
       <c r="F17" t="n">
-        <v>9.78132384883191</v>
+        <v>9.781323848831638</v>
       </c>
       <c r="G17" t="n">
-        <v>153.7387783710264</v>
+        <v>153.738778371027</v>
       </c>
       <c r="H17" t="n">
-        <v>4.964488501886827</v>
+        <v>4.964488501886605</v>
       </c>
       <c r="I17" t="n">
         <v>64.66687573308144</v>
@@ -1327,16 +1327,16 @@
         <v>4.419793767587765</v>
       </c>
       <c r="K17" t="n">
-        <v>64.50897657927139</v>
+        <v>64.50897657927112</v>
       </c>
       <c r="L17" t="n">
-        <v>4.234608584470301</v>
+        <v>4.234608584470118</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09294689812855693</v>
+        <v>0.09294689812856544</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2216292089756443</v>
+        <v>0.2216292089759072</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003199999999878855</v>
+        <v>0.0001838000000020656</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9616153836598</v>
       </c>
       <c r="F18" t="n">
-        <v>9.714028082141628</v>
+        <v>9.71402808214207</v>
       </c>
       <c r="G18" t="n">
-        <v>39.77480601839545</v>
+        <v>39.77480601839574</v>
       </c>
       <c r="H18" t="n">
-        <v>8.957200568982394</v>
+        <v>8.957200568983247</v>
       </c>
       <c r="I18" t="n">
         <v>27.73953336539376</v>
@@ -1379,16 +1379,16 @@
         <v>17.9514684390679</v>
       </c>
       <c r="K18" t="n">
-        <v>27.63307825678666</v>
+        <v>27.63307825678686</v>
       </c>
       <c r="L18" t="n">
-        <v>17.33611938479338</v>
+        <v>17.33611938479476</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0785182899890275</v>
+        <v>0.07851828998901568</v>
       </c>
       <c r="N18" t="n">
-        <v>0.180614792744647</v>
+        <v>0.180614792744225</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003068000000041593</v>
+        <v>0.0003275000000009243</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9171202329936</v>
       </c>
       <c r="F19" t="n">
-        <v>9.741649704716695</v>
+        <v>9.741649704716439</v>
       </c>
       <c r="G19" t="n">
-        <v>52.48195171673482</v>
+        <v>52.48195171673433</v>
       </c>
       <c r="H19" t="n">
-        <v>9.164514415364575</v>
+        <v>9.164514415364298</v>
       </c>
       <c r="I19" t="n">
         <v>35.67338189562808</v>
@@ -1431,16 +1431,16 @@
         <v>17.4087621630154</v>
       </c>
       <c r="K19" t="n">
-        <v>35.55316057442874</v>
+        <v>35.55316057442862</v>
       </c>
       <c r="L19" t="n">
-        <v>16.99020389568229</v>
+        <v>16.99020389568179</v>
       </c>
       <c r="M19" t="n">
-        <v>0.09516787021832193</v>
+        <v>0.09516787021832633</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1381236541847156</v>
+        <v>0.1381236541848851</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0002978999999925236</v>
+        <v>0.0002107000000002301</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9761714668581</v>
       </c>
       <c r="F20" t="n">
-        <v>9.603847945766587</v>
+        <v>9.60384794577101</v>
       </c>
       <c r="G20" t="n">
-        <v>116.9206317790254</v>
+        <v>116.9206317790277</v>
       </c>
       <c r="H20" t="n">
-        <v>8.568517781910876</v>
+        <v>8.568517781916448</v>
       </c>
       <c r="I20" t="n">
         <v>77.36702495454749</v>
@@ -1483,16 +1483,16 @@
         <v>11.12685015605182</v>
       </c>
       <c r="K20" t="n">
-        <v>77.28321395370779</v>
+        <v>77.28321395370928</v>
       </c>
       <c r="L20" t="n">
-        <v>10.59432160121588</v>
+        <v>10.59432160122173</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09655079906417047</v>
+        <v>0.09655079906407821</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2414249974148035</v>
+        <v>0.2414249974119547</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003118000000057464</v>
+        <v>0.0001815000000000566</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9336990211954</v>
       </c>
       <c r="F21" t="n">
-        <v>9.685940121481396</v>
+        <v>9.685940121481261</v>
       </c>
       <c r="G21" t="n">
-        <v>17.19808491664813</v>
+        <v>17.19808491664798</v>
       </c>
       <c r="H21" t="n">
-        <v>11.89305607510295</v>
+        <v>11.89305607510235</v>
       </c>
       <c r="I21" t="n">
         <v>14.65846372863805</v>
@@ -1535,16 +1535,16 @@
         <v>21.98288036784542</v>
       </c>
       <c r="K21" t="n">
-        <v>14.56442747276473</v>
+        <v>14.56442747276464</v>
       </c>
       <c r="L21" t="n">
-        <v>21.39050056560033</v>
+        <v>21.39050056559948</v>
       </c>
       <c r="M21" t="n">
-        <v>0.09063768847648583</v>
+        <v>0.09063768847649439</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1272139060049707</v>
+        <v>0.1272139060051833</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003029999999881738</v>
+        <v>0.0001881000000025779</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.7348320662148</v>
       </c>
       <c r="F22" t="n">
-        <v>9.312852716623315</v>
+        <v>9.312852716621618</v>
       </c>
       <c r="G22" t="n">
-        <v>105.1654385647339</v>
+        <v>105.1654385647326</v>
       </c>
       <c r="H22" t="n">
-        <v>12.707961043139</v>
+        <v>12.70796104313611</v>
       </c>
       <c r="I22" t="n">
         <v>80.46804950751098</v>
@@ -1587,16 +1587,16 @@
         <v>17.3070565800005</v>
       </c>
       <c r="K22" t="n">
-        <v>80.30554260756089</v>
+        <v>80.30554260756051</v>
       </c>
       <c r="L22" t="n">
-        <v>16.07539389969791</v>
+        <v>16.07539389969464</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1091673808832354</v>
+        <v>0.1091673808832887</v>
       </c>
       <c r="N22" t="n">
-        <v>0.369935451870984</v>
+        <v>0.3699354518719562</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0002862000000050102</v>
+        <v>0.0001959000000013589</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.01558927485166555</v>
       </c>
       <c r="F23" t="n">
-        <v>10.03835742659429</v>
+        <v>10.03835742659414</v>
       </c>
       <c r="G23" t="n">
-        <v>8.794665152232618</v>
+        <v>8.794665152232364</v>
       </c>
       <c r="H23" t="n">
-        <v>6.328657346813618</v>
+        <v>6.328657346813756</v>
       </c>
       <c r="I23" t="n">
         <v>8.886792062587165</v>
@@ -1639,16 +1639,16 @@
         <v>15.23897862130467</v>
       </c>
       <c r="K23" t="n">
-        <v>8.888011296042205</v>
+        <v>8.888011296042167</v>
       </c>
       <c r="L23" t="n">
-        <v>15.10851305209704</v>
+        <v>15.10851305209706</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09264556932493104</v>
+        <v>0.09264556932493145</v>
       </c>
       <c r="N23" t="n">
-        <v>0.06953436289428115</v>
+        <v>0.06953436289421178</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003558000000083439</v>
+        <v>0.0002549000000016122</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.02758497595955204</v>
       </c>
       <c r="F24" t="n">
-        <v>9.914039512755263</v>
+        <v>9.914039512755538</v>
       </c>
       <c r="G24" t="n">
-        <v>37.60427825173267</v>
+        <v>37.60427825173344</v>
       </c>
       <c r="H24" t="n">
-        <v>8.488738795283737</v>
+        <v>8.488738795283847</v>
       </c>
       <c r="I24" t="n">
         <v>25.73745290239647</v>
@@ -1691,16 +1691,16 @@
         <v>17.47349577797121</v>
       </c>
       <c r="K24" t="n">
-        <v>25.68490486206269</v>
+        <v>25.68490486206283</v>
       </c>
       <c r="L24" t="n">
-        <v>17.05282836914113</v>
+        <v>17.05282836914148</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1012752695366807</v>
+        <v>0.1012752695366778</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1382765786266892</v>
+        <v>0.1382765786266086</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003065999999876112</v>
+        <v>0.000196599999998881</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.799903583094</v>
       </c>
       <c r="F25" t="n">
-        <v>9.373471528264018</v>
+        <v>9.373471528261737</v>
       </c>
       <c r="G25" t="n">
-        <v>92.50372287550687</v>
+        <v>92.50372287550493</v>
       </c>
       <c r="H25" t="n">
-        <v>13.36726794813873</v>
+        <v>13.36726794813466</v>
       </c>
       <c r="I25" t="n">
         <v>70.67112797219256</v>
@@ -1743,16 +1743,16 @@
         <v>19.47923218856673</v>
       </c>
       <c r="K25" t="n">
-        <v>70.56367683775586</v>
+        <v>70.56367683775532</v>
       </c>
       <c r="L25" t="n">
-        <v>18.2003300684937</v>
+        <v>18.20033006848862</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0964651335370573</v>
+        <v>0.09646513353712452</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3249393673854202</v>
+        <v>0.3249393673867471</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0002858000000003358</v>
+        <v>0.0002026999999991119</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.6012363482052</v>
       </c>
       <c r="F26" t="n">
-        <v>9.834919719166347</v>
+        <v>9.834919719172149</v>
       </c>
       <c r="G26" t="n">
-        <v>172.4336309301086</v>
+        <v>172.4336309301041</v>
       </c>
       <c r="H26" t="n">
-        <v>11.20098543516799</v>
+        <v>11.20098543517618</v>
       </c>
       <c r="I26" t="n">
         <v>154.9934456744326</v>
@@ -1795,16 +1795,16 @@
         <v>6.82101990562933</v>
       </c>
       <c r="K26" t="n">
-        <v>154.810127112839</v>
+        <v>154.8101271128349</v>
       </c>
       <c r="L26" t="n">
-        <v>6.747503157605878</v>
+        <v>6.747503157610297</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1627732939229627</v>
+        <v>0.1627732939228064</v>
       </c>
       <c r="N26" t="n">
-        <v>0.115411249699543</v>
+        <v>0.1154112496977972</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0006513000000012426</v>
+        <v>0.0001962999999989279</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9315180731002</v>
       </c>
       <c r="F27" t="n">
-        <v>9.729726432094202</v>
+        <v>9.7297264320946</v>
       </c>
       <c r="G27" t="n">
-        <v>156.665340742078</v>
+        <v>156.6653407420778</v>
       </c>
       <c r="H27" t="n">
-        <v>9.638208053851439</v>
+        <v>9.638208053851974</v>
       </c>
       <c r="I27" t="n">
         <v>121.4009088187373</v>
@@ -1850,13 +1850,13 @@
         <v>121.4198703282965</v>
       </c>
       <c r="L27" t="n">
-        <v>6.726354629774819</v>
+        <v>6.726354629775163</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1025640705715465</v>
+        <v>0.1025640705715388</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1451428794065439</v>
+        <v>0.1451428794063082</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003092999999978474</v>
+        <v>0.0001856999999994002</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.941202036502</v>
       </c>
       <c r="F28" t="n">
-        <v>9.797295610516725</v>
+        <v>9.797295610518155</v>
       </c>
       <c r="G28" t="n">
-        <v>55.15938696635125</v>
+        <v>55.15938696635364</v>
       </c>
       <c r="H28" t="n">
-        <v>9.012731799494137</v>
+        <v>9.0127317994958</v>
       </c>
       <c r="I28" t="n">
         <v>36.9783150738388</v>
@@ -1899,16 +1899,16 @@
         <v>17.11232764246076</v>
       </c>
       <c r="K28" t="n">
-        <v>36.91719942641646</v>
+        <v>36.91719942641713</v>
       </c>
       <c r="L28" t="n">
-        <v>16.70991150017542</v>
+        <v>16.70991150017832</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08989878736144999</v>
+        <v>0.08989878736141813</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1207567837351423</v>
+        <v>0.1207567837341792</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003017000000085091</v>
+        <v>0.000239499999999282</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.6143183754303</v>
       </c>
       <c r="F29" t="n">
-        <v>9.642552790851216</v>
+        <v>9.642552790854833</v>
       </c>
       <c r="G29" t="n">
-        <v>75.94536427461516</v>
+        <v>75.94536427461887</v>
       </c>
       <c r="H29" t="n">
-        <v>12.488795545635</v>
+        <v>12.4887955456409</v>
       </c>
       <c r="I29" t="n">
         <v>55.80674075854401</v>
@@ -1951,16 +1951,16 @@
         <v>19.44632462639266</v>
       </c>
       <c r="K29" t="n">
-        <v>55.71460301652381</v>
+        <v>55.7146030165249</v>
       </c>
       <c r="L29" t="n">
-        <v>18.9332843287217</v>
+        <v>18.93328432873003</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1097599077916265</v>
+        <v>0.1097599077915088</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1401269411033665</v>
+        <v>0.1401269411011277</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003061000000030845</v>
+        <v>0.0001930000000029963</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.866100286639</v>
       </c>
       <c r="F30" t="n">
-        <v>9.750126489984552</v>
+        <v>9.750126489977863</v>
       </c>
       <c r="G30" t="n">
-        <v>130.950660202077</v>
+        <v>130.9506602020761</v>
       </c>
       <c r="H30" t="n">
-        <v>9.444884218302725</v>
+        <v>9.444884218293801</v>
       </c>
       <c r="I30" t="n">
         <v>91.80924814573706</v>
@@ -2003,16 +2003,16 @@
         <v>9.961999912823932</v>
       </c>
       <c r="K30" t="n">
-        <v>91.73805557896753</v>
+        <v>91.7380555789662</v>
       </c>
       <c r="L30" t="n">
-        <v>9.712310042036751</v>
+        <v>9.712310042028784</v>
       </c>
       <c r="M30" t="n">
-        <v>0.09297398265013099</v>
+        <v>0.09297398265026828</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1408393906759633</v>
+        <v>0.140839390679944</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003102999999953227</v>
+        <v>0.0001824999999975319</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.1252446378913628</v>
       </c>
       <c r="F31" t="n">
-        <v>9.616721619406432</v>
+        <v>9.616721619405046</v>
       </c>
       <c r="G31" t="n">
-        <v>156.4719108605283</v>
+        <v>156.4719108605302</v>
       </c>
       <c r="H31" t="n">
-        <v>6.035990449159184</v>
+        <v>6.035990449157844</v>
       </c>
       <c r="I31" t="n">
         <v>85.08185965409687</v>
@@ -2055,16 +2055,16 @@
         <v>4.383667298314077</v>
       </c>
       <c r="K31" t="n">
-        <v>84.97072309542878</v>
+        <v>84.97072309542779</v>
       </c>
       <c r="L31" t="n">
-        <v>4.098726375974641</v>
+        <v>4.098726375973786</v>
       </c>
       <c r="M31" t="n">
-        <v>0.09569099305447806</v>
+        <v>0.09569099305451942</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3101195035896119</v>
+        <v>0.3101195035907615</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0002908000000019229</v>
+        <v>0.0001839999999972974</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.3792157994329175</v>
       </c>
       <c r="F32" t="n">
-        <v>9.276844179568178</v>
+        <v>9.276844179566234</v>
       </c>
       <c r="G32" t="n">
-        <v>116.7094378040675</v>
+        <v>116.7094378040665</v>
       </c>
       <c r="H32" t="n">
-        <v>6.628081169413856</v>
+        <v>6.628081169411712</v>
       </c>
       <c r="I32" t="n">
         <v>69.94009040741105</v>
@@ -2107,16 +2107,16 @@
         <v>9.94082687493656</v>
       </c>
       <c r="K32" t="n">
-        <v>69.6911808851395</v>
+        <v>69.69118088513854</v>
       </c>
       <c r="L32" t="n">
-        <v>8.889479900315511</v>
+        <v>8.889479900313166</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1023359093450787</v>
+        <v>0.1023359093451228</v>
       </c>
       <c r="N32" t="n">
-        <v>0.5683601271875034</v>
+        <v>0.5683601271888221</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0002955000000071095</v>
+        <v>0.0002364000000021349</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.124427164275475</v>
       </c>
       <c r="F33" t="n">
-        <v>9.513128863091952</v>
+        <v>9.513128863091957</v>
       </c>
       <c r="G33" t="n">
-        <v>50.89874843935559</v>
+        <v>50.89874843935547</v>
       </c>
       <c r="H33" t="n">
-        <v>13.59186629480716</v>
+        <v>13.59186629480727</v>
       </c>
       <c r="I33" t="n">
         <v>39.0616009844012</v>
@@ -2159,16 +2159,16 @@
         <v>23.45979414801152</v>
       </c>
       <c r="K33" t="n">
-        <v>38.86577307972632</v>
+        <v>38.8657730797263</v>
       </c>
       <c r="L33" t="n">
-        <v>22.06921867420317</v>
+        <v>22.06921867420332</v>
       </c>
       <c r="M33" t="n">
-        <v>0.09715216405327969</v>
+        <v>0.09715216405327758</v>
       </c>
       <c r="N33" t="n">
-        <v>0.3186548232482321</v>
+        <v>0.3186548232482113</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003307000000063454</v>
+        <v>0.000190199999998697</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.1046683352968264</v>
       </c>
       <c r="F34" t="n">
-        <v>9.411996150192666</v>
+        <v>9.411996150194003</v>
       </c>
       <c r="G34" t="n">
-        <v>155.5051624726638</v>
+        <v>155.5051624726623</v>
       </c>
       <c r="H34" t="n">
-        <v>6.820764664864516</v>
+        <v>6.820764664865967</v>
       </c>
       <c r="I34" t="n">
         <v>98.12939238316436</v>
@@ -2211,16 +2211,16 @@
         <v>5.067646835573846</v>
       </c>
       <c r="K34" t="n">
-        <v>98.10788865482435</v>
+        <v>98.10788865482461</v>
       </c>
       <c r="L34" t="n">
-        <v>4.62746193836723</v>
+        <v>4.627461938368168</v>
       </c>
       <c r="M34" t="n">
-        <v>0.09570102744266291</v>
+        <v>0.09570102744263585</v>
       </c>
       <c r="N34" t="n">
-        <v>0.3908278969666227</v>
+        <v>0.3908278969657261</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0002867000000037478</v>
+        <v>0.0001856999999994002</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.09565605153243364</v>
       </c>
       <c r="F35" t="n">
-        <v>9.794577458955505</v>
+        <v>9.794577458955354</v>
       </c>
       <c r="G35" t="n">
-        <v>44.62502037759129</v>
+        <v>44.62502037759087</v>
       </c>
       <c r="H35" t="n">
-        <v>7.988553739588625</v>
+        <v>7.988553739588522</v>
       </c>
       <c r="I35" t="n">
         <v>29.60621371940404</v>
@@ -2263,16 +2263,16 @@
         <v>16.7283342947574</v>
       </c>
       <c r="K35" t="n">
-        <v>29.49834283885306</v>
+        <v>29.49834283885297</v>
       </c>
       <c r="L35" t="n">
-        <v>16.08618440580154</v>
+        <v>16.0861844058013</v>
       </c>
       <c r="M35" t="n">
-        <v>0.08883362933670853</v>
+        <v>0.08883362933671071</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2159868087766252</v>
+        <v>0.2159868087767113</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0004042000000055168</v>
+        <v>0.0001882999999978097</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.9268494698117</v>
       </c>
       <c r="F36" t="n">
-        <v>9.842476075742184</v>
+        <v>9.842476075742182</v>
       </c>
       <c r="G36" t="n">
-        <v>6.858630845674843</v>
+        <v>6.858630845674907</v>
       </c>
       <c r="H36" t="n">
-        <v>12.08715200082133</v>
+        <v>12.08715200082161</v>
       </c>
       <c r="I36" t="n">
         <v>7.633544320503938</v>
@@ -2315,16 +2315,16 @@
         <v>22.30604591386155</v>
       </c>
       <c r="K36" t="n">
-        <v>7.611406195532153</v>
+        <v>7.611406195532191</v>
       </c>
       <c r="L36" t="n">
-        <v>21.81913486963995</v>
+        <v>21.81913486964029</v>
       </c>
       <c r="M36" t="n">
-        <v>0.08829257219271332</v>
+        <v>0.08829257219271097</v>
       </c>
       <c r="N36" t="n">
-        <v>0.09940355284733592</v>
+        <v>0.09940355284724478</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0004763000000025386</v>
+        <v>0.0001883999999989783</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.5669210130263596</v>
       </c>
       <c r="F37" t="n">
-        <v>9.563858218638082</v>
+        <v>9.563858218639739</v>
       </c>
       <c r="G37" t="n">
-        <v>84.03663053852311</v>
+        <v>84.03663053852486</v>
       </c>
       <c r="H37" t="n">
-        <v>5.866864539561166</v>
+        <v>5.866864539562849</v>
       </c>
       <c r="I37" t="n">
         <v>47.28302978168723</v>
@@ -2367,16 +2367,16 @@
         <v>12.44155687331505</v>
       </c>
       <c r="K37" t="n">
-        <v>47.11458678724348</v>
+        <v>47.11458678724438</v>
       </c>
       <c r="L37" t="n">
-        <v>11.28298121546292</v>
+        <v>11.28298121546554</v>
       </c>
       <c r="M37" t="n">
-        <v>0.123293083971271</v>
+        <v>0.1232930839712367</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5479168852076277</v>
+        <v>0.5479168852064636</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.000301499999991961</v>
+        <v>0.0002402000000003568</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.7970760202737</v>
       </c>
       <c r="F38" t="n">
-        <v>9.583619742826521</v>
+        <v>9.58361974283749</v>
       </c>
       <c r="G38" t="n">
-        <v>130.7492731023093</v>
+        <v>130.749273102311</v>
       </c>
       <c r="H38" t="n">
-        <v>9.706155503376854</v>
+        <v>9.706155503392036</v>
       </c>
       <c r="I38" t="n">
         <v>93.75460165970797</v>
@@ -2419,16 +2419,16 @@
         <v>10.42956719317792</v>
       </c>
       <c r="K38" t="n">
-        <v>93.65150533056415</v>
+        <v>93.65150533056594</v>
       </c>
       <c r="L38" t="n">
-        <v>9.980522365262265</v>
+        <v>9.98052236527586</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1150811140042965</v>
+        <v>0.1150811140039931</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2326324936548991</v>
+        <v>0.2326324936485236</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0002887999999927615</v>
+        <v>0.0001880999999990252</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.01633908370124642</v>
       </c>
       <c r="F39" t="n">
-        <v>9.736392714591661</v>
+        <v>9.736392714585097</v>
       </c>
       <c r="G39" t="n">
-        <v>170.3438469106626</v>
+        <v>170.3438469106704</v>
       </c>
       <c r="H39" t="n">
-        <v>8.260634629657565</v>
+        <v>8.260634629649902</v>
       </c>
       <c r="I39" t="n">
         <v>132.8794796020886</v>
@@ -2471,16 +2471,16 @@
         <v>4.031761962137695</v>
       </c>
       <c r="K39" t="n">
-        <v>133.0833642771388</v>
+        <v>133.0833642771433</v>
       </c>
       <c r="L39" t="n">
-        <v>3.882941667460994</v>
+        <v>3.882941667457339</v>
       </c>
       <c r="M39" t="n">
-        <v>0.08966335597930045</v>
+        <v>0.0896633559794577</v>
       </c>
       <c r="N39" t="n">
-        <v>0.2108680633297651</v>
+        <v>0.2108680633348219</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003034000000070591</v>
+        <v>0.0001832999999997753</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.697388305565</v>
       </c>
       <c r="F40" t="n">
-        <v>9.711798423433786</v>
+        <v>9.711798423433011</v>
       </c>
       <c r="G40" t="n">
-        <v>68.78208679584827</v>
+        <v>68.7820867958478</v>
       </c>
       <c r="H40" t="n">
-        <v>13.05796314952864</v>
+        <v>13.05796314952717</v>
       </c>
       <c r="I40" t="n">
         <v>51.01422188754402</v>
@@ -2523,16 +2523,16 @@
         <v>20.73148308181667</v>
       </c>
       <c r="K40" t="n">
-        <v>50.9311846553538</v>
+        <v>50.93118465535362</v>
       </c>
       <c r="L40" t="n">
-        <v>20.25592472527473</v>
+        <v>20.25592472527261</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1058898772971472</v>
+        <v>0.1058898772971739</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1194536135681549</v>
+        <v>0.1194536135686556</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003170000000096707</v>
+        <v>0.0002217000000008795</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.5785481301934</v>
       </c>
       <c r="F41" t="n">
-        <v>9.588923300809794</v>
+        <v>9.58892330081164</v>
       </c>
       <c r="G41" t="n">
-        <v>97.63028648379539</v>
+        <v>97.63028648379687</v>
       </c>
       <c r="H41" t="n">
-        <v>12.15295111525318</v>
+        <v>12.15295111525617</v>
       </c>
       <c r="I41" t="n">
         <v>72.19761816275663</v>
@@ -2575,16 +2575,16 @@
         <v>16.90630795593209</v>
       </c>
       <c r="K41" t="n">
-        <v>72.06004345913051</v>
+        <v>72.06004345913097</v>
       </c>
       <c r="L41" t="n">
-        <v>16.34923516606889</v>
+        <v>16.34923516607252</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1229584424444833</v>
+        <v>0.1229584424444146</v>
       </c>
       <c r="N41" t="n">
-        <v>0.193421018057616</v>
+        <v>0.1934210180565141</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002960999999999103</v>
+        <v>0.000182399999999916</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.1822643091633721</v>
       </c>
       <c r="F42" t="n">
-        <v>9.89734479402132</v>
+        <v>9.897344794021503</v>
       </c>
       <c r="G42" t="n">
-        <v>74.45114958843681</v>
+        <v>74.45114958843635</v>
       </c>
       <c r="H42" t="n">
-        <v>3.454810377617229</v>
+        <v>3.454810377617403</v>
       </c>
       <c r="I42" t="n">
         <v>31.92625942098924</v>
@@ -2627,16 +2627,16 @@
         <v>10.18120494273455</v>
       </c>
       <c r="K42" t="n">
-        <v>31.76335147689157</v>
+        <v>31.76335147689169</v>
       </c>
       <c r="L42" t="n">
-        <v>9.870566334893129</v>
+        <v>9.870566334893457</v>
       </c>
       <c r="M42" t="n">
-        <v>0.09193123705456167</v>
+        <v>0.09193123705455715</v>
       </c>
       <c r="N42" t="n">
-        <v>0.2612513169333806</v>
+        <v>0.2612513169331682</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0002935999999920114</v>
+        <v>0.0006154000000009319</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.08121369692019792</v>
       </c>
       <c r="F43" t="n">
-        <v>9.889987632814536</v>
+        <v>9.889987632814512</v>
       </c>
       <c r="G43" t="n">
-        <v>45.50350566517027</v>
+        <v>45.50350566517014</v>
       </c>
       <c r="H43" t="n">
-        <v>3.344593737753054</v>
+        <v>3.344593737753049</v>
       </c>
       <c r="I43" t="n">
         <v>21.98281729864149</v>
@@ -2679,16 +2679,16 @@
         <v>11.20442922515501</v>
       </c>
       <c r="K43" t="n">
-        <v>21.86340257487624</v>
+        <v>21.86340257487623</v>
       </c>
       <c r="L43" t="n">
-        <v>10.86825489090651</v>
+        <v>10.86825489090648</v>
       </c>
       <c r="M43" t="n">
-        <v>0.09122825973962902</v>
+        <v>0.09122825973962934</v>
       </c>
       <c r="N43" t="n">
-        <v>0.2350314828716695</v>
+        <v>0.2350314828716729</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003367000000054077</v>
+        <v>0.0002704999999991742</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.8509857540967</v>
       </c>
       <c r="F44" t="n">
-        <v>9.613586046512211</v>
+        <v>9.613586046510679</v>
       </c>
       <c r="G44" t="n">
-        <v>67.00839533223296</v>
+        <v>67.00839533223119</v>
       </c>
       <c r="H44" t="n">
-        <v>13.81903643758583</v>
+        <v>13.81903643758325</v>
       </c>
       <c r="I44" t="n">
         <v>50.70287428680181</v>
@@ -2731,16 +2731,16 @@
         <v>22.14193003827787</v>
       </c>
       <c r="K44" t="n">
-        <v>50.61199020760669</v>
+        <v>50.6119902076062</v>
       </c>
       <c r="L44" t="n">
-        <v>21.23392730588501</v>
+        <v>21.23392730588121</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09521331772066867</v>
+        <v>0.09521331772070837</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2035778045129991</v>
+        <v>0.2035778045138986</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.000296700000006922</v>
+        <v>0.0002727000000000146</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.9227800223966</v>
       </c>
       <c r="F45" t="n">
-        <v>9.716929845007602</v>
+        <v>9.716929845007586</v>
       </c>
       <c r="G45" t="n">
-        <v>20.25159902087645</v>
+        <v>20.25159902087643</v>
       </c>
       <c r="H45" t="n">
-        <v>10.18595883515975</v>
+        <v>10.18595883515967</v>
       </c>
       <c r="I45" t="n">
         <v>16.3064939917049</v>
@@ -2783,16 +2783,16 @@
         <v>19.74929820405307</v>
       </c>
       <c r="K45" t="n">
-        <v>16.18232503230307</v>
+        <v>16.18232503230304</v>
       </c>
       <c r="L45" t="n">
-        <v>19.33411791832578</v>
+        <v>19.33411791832567</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0905656596666802</v>
+        <v>0.09056565966668094</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1073253675881267</v>
+        <v>0.1073253675881632</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003045999999926607</v>
+        <v>0.0002877000000012231</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.2251844151767598</v>
       </c>
       <c r="F46" t="n">
-        <v>9.81889537238272</v>
+        <v>9.818895372383754</v>
       </c>
       <c r="G46" t="n">
-        <v>152.6348136845681</v>
+        <v>152.6348136845646</v>
       </c>
       <c r="H46" t="n">
-        <v>4.133731033791539</v>
+        <v>4.133731033792258</v>
       </c>
       <c r="I46" t="n">
         <v>51.49320715697708</v>
@@ -2835,16 +2835,16 @@
         <v>4.733318900759217</v>
       </c>
       <c r="K46" t="n">
-        <v>51.2827651306464</v>
+        <v>51.28276513064768</v>
       </c>
       <c r="L46" t="n">
-        <v>4.471916748405206</v>
+        <v>4.471916748405987</v>
       </c>
       <c r="M46" t="n">
-        <v>0.09843571589687568</v>
+        <v>0.09843571589682705</v>
       </c>
       <c r="N46" t="n">
-        <v>0.2764418527847787</v>
+        <v>0.2764418527836812</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.001017799999999625</v>
+        <v>0.0002510999999998376</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9920875681452</v>
       </c>
       <c r="F47" t="n">
-        <v>9.933683611861964</v>
+        <v>9.933683611863835</v>
       </c>
       <c r="G47" t="n">
-        <v>178.0924514645571</v>
+        <v>178.092451464555</v>
       </c>
       <c r="H47" t="n">
-        <v>9.514167746084919</v>
+        <v>9.514167746087239</v>
       </c>
       <c r="I47" t="n">
         <v>159.1796698056864</v>
@@ -2887,16 +2887,16 @@
         <v>4.410985878453859</v>
       </c>
       <c r="K47" t="n">
-        <v>159.2709889047293</v>
+        <v>159.2709889047272</v>
       </c>
       <c r="L47" t="n">
-        <v>4.376677941158134</v>
+        <v>4.376677941159154</v>
       </c>
       <c r="M47" t="n">
-        <v>0.08572316305236723</v>
+        <v>0.08572316305232248</v>
       </c>
       <c r="N47" t="n">
-        <v>0.05849365385398175</v>
+        <v>0.05849365385242109</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003150999999945725</v>
+        <v>0.0001970999999976186</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.8245372480388</v>
       </c>
       <c r="F48" t="n">
-        <v>9.663963190671328</v>
+        <v>9.663963190665793</v>
       </c>
       <c r="G48" t="n">
-        <v>140.874945423486</v>
+        <v>140.8749454234865</v>
       </c>
       <c r="H48" t="n">
-        <v>10.18358601566753</v>
+        <v>10.1835860156597</v>
       </c>
       <c r="I48" t="n">
         <v>105.4244541290951</v>
@@ -2939,16 +2939,16 @@
         <v>9.516228537064677</v>
       </c>
       <c r="K48" t="n">
-        <v>105.3659052164913</v>
+        <v>105.3659052164911</v>
       </c>
       <c r="L48" t="n">
-        <v>9.180218015245728</v>
+        <v>9.1802180152395</v>
       </c>
       <c r="M48" t="n">
-        <v>0.105930911550098</v>
+        <v>0.105930911550231</v>
       </c>
       <c r="N48" t="n">
-        <v>0.181141307482618</v>
+        <v>0.181141307485588</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002964999999903739</v>
+        <v>0.0001917999999996312</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.2544028427298431</v>
       </c>
       <c r="F49" t="n">
-        <v>9.920593543172759</v>
+        <v>9.920593543172455</v>
       </c>
       <c r="G49" t="n">
-        <v>20.26682258413244</v>
+        <v>20.2668225841321</v>
       </c>
       <c r="H49" t="n">
-        <v>13.67876382117762</v>
+        <v>13.67876382117704</v>
       </c>
       <c r="I49" t="n">
         <v>17.03401812828383</v>
@@ -2991,16 +2991,16 @@
         <v>25.00422823336124</v>
       </c>
       <c r="K49" t="n">
-        <v>16.90657429569526</v>
+        <v>16.90657429569512</v>
       </c>
       <c r="L49" t="n">
-        <v>23.72793797627024</v>
+        <v>23.72793797626927</v>
       </c>
       <c r="M49" t="n">
-        <v>0.09465110026136586</v>
+        <v>0.09465110026137107</v>
       </c>
       <c r="N49" t="n">
-        <v>0.293657731148351</v>
+        <v>0.2936577311485587</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003011000000014974</v>
+        <v>0.0001996999999995808</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.2980893959785312</v>
       </c>
       <c r="F50" t="n">
-        <v>10.27886783737294</v>
+        <v>10.2788678373728</v>
       </c>
       <c r="G50" t="n">
-        <v>2.518825880601326</v>
+        <v>2.518825880601402</v>
       </c>
       <c r="H50" t="n">
-        <v>12.26352018661643</v>
+        <v>12.26352018661686</v>
       </c>
       <c r="I50" t="n">
         <v>4.979091423193565</v>
@@ -3043,16 +3043,16 @@
         <v>23.88762442334499</v>
       </c>
       <c r="K50" t="n">
-        <v>4.781392262394848</v>
+        <v>4.781392262394874</v>
       </c>
       <c r="L50" t="n">
-        <v>22.44247237720419</v>
+        <v>22.44247237720457</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1006140728245532</v>
+        <v>0.1006140728245527</v>
       </c>
       <c r="N50" t="n">
-        <v>0.4279385190834834</v>
+        <v>0.4279385190833682</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003287999999912472</v>
+        <v>0.000339799999999002</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.312947723461975</v>
       </c>
       <c r="F51" t="n">
-        <v>9.791233434935451</v>
+        <v>9.791233434936101</v>
       </c>
       <c r="G51" t="n">
-        <v>54.62336271529665</v>
+        <v>54.6233627152979</v>
       </c>
       <c r="H51" t="n">
-        <v>5.444346574236822</v>
+        <v>5.444346574237427</v>
       </c>
       <c r="I51" t="n">
         <v>31.07252442683621</v>
@@ -3095,16 +3095,16 @@
         <v>13.5120365339658</v>
       </c>
       <c r="K51" t="n">
-        <v>30.87373398336943</v>
+        <v>30.87373398336984</v>
       </c>
       <c r="L51" t="n">
-        <v>12.7660713644696</v>
+        <v>12.76607136447076</v>
       </c>
       <c r="M51" t="n">
-        <v>0.09159320090337221</v>
+        <v>0.09159320090336087</v>
       </c>
       <c r="N51" t="n">
-        <v>0.3710671815152448</v>
+        <v>0.3710671815147721</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003049999999973352</v>
+        <v>0.0002303999999995199</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.4681056326050967</v>
       </c>
       <c r="F52" t="n">
-        <v>9.605603302980985</v>
+        <v>9.605603302980237</v>
       </c>
       <c r="G52" t="n">
-        <v>90.6522054666919</v>
+        <v>90.65220546669042</v>
       </c>
       <c r="H52" t="n">
-        <v>5.10477680853184</v>
+        <v>5.104776808531214</v>
       </c>
       <c r="I52" t="n">
         <v>47.03792036458195</v>
@@ -3147,16 +3147,16 @@
         <v>11.00547523311644</v>
       </c>
       <c r="K52" t="n">
-        <v>46.82356452761496</v>
+        <v>46.82356452761444</v>
       </c>
       <c r="L52" t="n">
-        <v>10.1121222526791</v>
+        <v>10.11212225267816</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1094910312906442</v>
+        <v>0.1094910312906604</v>
       </c>
       <c r="N52" t="n">
-        <v>0.504977321946955</v>
+        <v>0.5049773219474621</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002928999999909365</v>
+        <v>0.0002193000000012546</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.08715095200459153</v>
       </c>
       <c r="F53" t="n">
-        <v>9.8440475158329</v>
+        <v>9.844047515832861</v>
       </c>
       <c r="G53" t="n">
-        <v>122.2539649608907</v>
+        <v>122.253964960892</v>
       </c>
       <c r="H53" t="n">
-        <v>3.41038173994685</v>
+        <v>3.410381739946817</v>
       </c>
       <c r="I53" t="n">
         <v>42.84508415968962</v>
@@ -3199,16 +3199,16 @@
         <v>7.034854823508725</v>
       </c>
       <c r="K53" t="n">
-        <v>42.65238844144341</v>
+        <v>42.65238844144344</v>
       </c>
       <c r="L53" t="n">
-        <v>6.857635362409696</v>
+        <v>6.85763536240957</v>
       </c>
       <c r="M53" t="n">
-        <v>0.08963342540766739</v>
+        <v>0.08963342540766889</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1949039343274533</v>
+        <v>0.1949039343275328</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003233999999991966</v>
+        <v>0.0002700000000004366</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.8441572478157</v>
       </c>
       <c r="F54" t="n">
-        <v>10.03699885929042</v>
+        <v>10.03699885928985</v>
       </c>
       <c r="G54" t="n">
-        <v>146.256242283068</v>
+        <v>146.2562422830702</v>
       </c>
       <c r="H54" t="n">
-        <v>3.320645827224879</v>
+        <v>3.320645827224541</v>
       </c>
       <c r="I54" t="n">
         <v>39.20823517402567</v>
@@ -3251,16 +3251,16 @@
         <v>5.169813417634993</v>
       </c>
       <c r="K54" t="n">
-        <v>39.25788077760173</v>
+        <v>39.25788077760094</v>
       </c>
       <c r="L54" t="n">
-        <v>5.304286453575395</v>
+        <v>5.304286453574939</v>
       </c>
       <c r="M54" t="n">
-        <v>0.08492713055794811</v>
+        <v>0.08492713055795748</v>
       </c>
       <c r="N54" t="n">
-        <v>0.108809004388394</v>
+        <v>0.1088090043877463</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003126999999949476</v>
+        <v>0.000209099999999296</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.9382405399448</v>
       </c>
       <c r="F55" t="n">
-        <v>9.539874018911112</v>
+        <v>9.539874018919221</v>
       </c>
       <c r="G55" t="n">
-        <v>152.519998515454</v>
+        <v>152.51999851545</v>
       </c>
       <c r="H55" t="n">
-        <v>9.142947060591087</v>
+        <v>9.142947060601735</v>
       </c>
       <c r="I55" t="n">
         <v>114.2699214848488</v>
@@ -3303,16 +3303,16 @@
         <v>7.220398177179498</v>
       </c>
       <c r="K55" t="n">
-        <v>114.3030727837679</v>
+        <v>114.3030727837671</v>
       </c>
       <c r="L55" t="n">
-        <v>6.827950440575639</v>
+        <v>6.827950440582812</v>
       </c>
       <c r="M55" t="n">
-        <v>0.1068602907330541</v>
+        <v>0.1068602907328699</v>
       </c>
       <c r="N55" t="n">
-        <v>0.2536925808701871</v>
+        <v>0.253692580865505</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003679000000005317</v>
+        <v>0.000249999999997641</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.5556632233838706</v>
       </c>
       <c r="F56" t="n">
-        <v>9.532027947846387</v>
+        <v>9.532027947845505</v>
       </c>
       <c r="G56" t="n">
-        <v>76.4994710116861</v>
+        <v>76.49947101168381</v>
       </c>
       <c r="H56" t="n">
-        <v>6.449331242765768</v>
+        <v>6.449331242765003</v>
       </c>
       <c r="I56" t="n">
         <v>45.4456541921149</v>
@@ -3355,16 +3355,16 @@
         <v>13.64739445873363</v>
       </c>
       <c r="K56" t="n">
-        <v>45.21686132619912</v>
+        <v>45.21686132619855</v>
       </c>
       <c r="L56" t="n">
-        <v>12.38167579164735</v>
+        <v>12.3816757916461</v>
       </c>
       <c r="M56" t="n">
-        <v>0.1078698727424748</v>
+        <v>0.1078698727424869</v>
       </c>
       <c r="N56" t="n">
-        <v>0.5424307583293758</v>
+        <v>0.5424307583298739</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003187999999880731</v>
+        <v>0.0002028999999978964</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.4871193343902016</v>
       </c>
       <c r="F57" t="n">
-        <v>10.1395646791167</v>
+        <v>10.13956467911687</v>
       </c>
       <c r="G57" t="n">
-        <v>16.67528670610391</v>
+        <v>16.67528670610409</v>
       </c>
       <c r="H57" t="n">
-        <v>13.17217238031913</v>
+        <v>13.17217238031967</v>
       </c>
       <c r="I57" t="n">
         <v>14.44966940927695</v>
@@ -3407,16 +3407,16 @@
         <v>25.01968713371055</v>
       </c>
       <c r="K57" t="n">
-        <v>14.33597580176058</v>
+        <v>14.33597580176066</v>
       </c>
       <c r="L57" t="n">
-        <v>23.3931699059134</v>
+        <v>23.39316990591421</v>
       </c>
       <c r="M57" t="n">
-        <v>0.105315622349814</v>
+        <v>0.1053156223498116</v>
       </c>
       <c r="N57" t="n">
-        <v>0.3925802315963638</v>
+        <v>0.3925802315961993</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002994999999970105</v>
+        <v>0.0001888000000001</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.3112929526507688</v>
       </c>
       <c r="F58" t="n">
-        <v>9.210322843128171</v>
+        <v>9.21032284312739</v>
       </c>
       <c r="G58" t="n">
-        <v>179.6794154318063</v>
+        <v>179.6794154318082</v>
       </c>
       <c r="H58" t="n">
-        <v>6.227345879438573</v>
+        <v>6.227345879437812</v>
       </c>
       <c r="I58" t="n">
         <v>122.3917356254008</v>
@@ -3459,16 +3459,16 @@
         <v>1.88002910171164</v>
       </c>
       <c r="K58" t="n">
-        <v>124.8473437143317</v>
+        <v>124.8473437143332</v>
       </c>
       <c r="L58" t="n">
-        <v>1.538127621892365</v>
+        <v>1.538127621892079</v>
       </c>
       <c r="M58" t="n">
-        <v>0.2268738761014164</v>
+        <v>0.2268738761015888</v>
       </c>
       <c r="N58" t="n">
-        <v>1.256372340513391</v>
+        <v>1.256372340514347</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003083000000003722</v>
+        <v>0.0001879000000002407</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.03931564720407376</v>
       </c>
       <c r="F59" t="n">
-        <v>9.828581911720065</v>
+        <v>9.828581911720072</v>
       </c>
       <c r="G59" t="n">
-        <v>15.16918602139838</v>
+        <v>15.16918602139839</v>
       </c>
       <c r="H59" t="n">
-        <v>5.683621387099635</v>
+        <v>5.683621387099683</v>
       </c>
       <c r="I59" t="n">
         <v>12.23519148406908</v>
@@ -3511,16 +3511,16 @@
         <v>14.37002887945796</v>
       </c>
       <c r="K59" t="n">
-        <v>12.11788306651992</v>
+        <v>12.11788306651994</v>
       </c>
       <c r="L59" t="n">
-        <v>14.10931095391505</v>
+        <v>14.10931095391512</v>
       </c>
       <c r="M59" t="n">
-        <v>0.09989958710112007</v>
+        <v>0.09989958710111943</v>
       </c>
       <c r="N59" t="n">
-        <v>0.1090094175180171</v>
+        <v>0.1090094175179814</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0008209000000078959</v>
+        <v>0.0002661000000010461</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.228055843852356</v>
       </c>
       <c r="F60" t="n">
-        <v>9.589634670418834</v>
+        <v>9.589634670420347</v>
       </c>
       <c r="G60" t="n">
-        <v>65.34024307923701</v>
+        <v>65.34024307923976</v>
       </c>
       <c r="H60" t="n">
-        <v>7.793504452715337</v>
+        <v>7.793504452716982</v>
       </c>
       <c r="I60" t="n">
         <v>41.96631688030001</v>
@@ -3563,16 +3563,16 @@
         <v>15.51473424919647</v>
       </c>
       <c r="K60" t="n">
-        <v>41.75419046392205</v>
+        <v>41.75419046392284</v>
       </c>
       <c r="L60" t="n">
-        <v>14.57785490945025</v>
+        <v>14.57785490945301</v>
       </c>
       <c r="M60" t="n">
-        <v>0.08945066323009049</v>
+        <v>0.08945066323006916</v>
       </c>
       <c r="N60" t="n">
-        <v>0.3476383284040337</v>
+        <v>0.3476383284029886</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003072999999886861</v>
+        <v>0.000197999999997478</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.5007850564184159</v>
       </c>
       <c r="F61" t="n">
-        <v>9.441978683149124</v>
+        <v>9.441978683149827</v>
       </c>
       <c r="G61" t="n">
-        <v>171.1020594520963</v>
+        <v>171.1020594520938</v>
       </c>
       <c r="H61" t="n">
-        <v>4.563113427671643</v>
+        <v>4.563113427672152</v>
       </c>
       <c r="I61" t="n">
         <v>56.76408976169788</v>
@@ -3615,16 +3615,16 @@
         <v>3.059300117780022</v>
       </c>
       <c r="K61" t="n">
-        <v>56.01891693147613</v>
+        <v>56.01891693147778</v>
       </c>
       <c r="L61" t="n">
-        <v>2.532419184517896</v>
+        <v>2.532419184518248</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1385956320271947</v>
+        <v>0.1385956320270744</v>
       </c>
       <c r="N61" t="n">
-        <v>0.7619640291320349</v>
+        <v>0.7619640291311094</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002913000000006605</v>
+        <v>0.0001855000000006157</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.2765312979639231</v>
       </c>
       <c r="F62" t="n">
-        <v>9.921005937427985</v>
+        <v>9.921005937427926</v>
       </c>
       <c r="G62" t="n">
-        <v>55.34268563669445</v>
+        <v>55.34268563669482</v>
       </c>
       <c r="H62" t="n">
-        <v>4.824552669318993</v>
+        <v>4.824552669318862</v>
       </c>
       <c r="I62" t="n">
         <v>29.53509225686502</v>
@@ -3667,16 +3667,16 @@
         <v>12.72106643331113</v>
       </c>
       <c r="K62" t="n">
-        <v>29.43926418986362</v>
+        <v>29.4392641898636</v>
       </c>
       <c r="L62" t="n">
-        <v>12.16796564569793</v>
+        <v>12.16796564569772</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1060890463951836</v>
+        <v>0.1060890463951862</v>
       </c>
       <c r="N62" t="n">
-        <v>0.32573951340548</v>
+        <v>0.3257395134055851</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0002960000000058471</v>
+        <v>0.0001876000000002875</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.129448665467937</v>
       </c>
       <c r="F63" t="n">
-        <v>9.780385273473707</v>
+        <v>9.780385273473147</v>
       </c>
       <c r="G63" t="n">
-        <v>149.4782587691438</v>
+        <v>149.4782587691447</v>
       </c>
       <c r="H63" t="n">
-        <v>4.984589013121505</v>
+        <v>4.984589013121038</v>
       </c>
       <c r="I63" t="n">
         <v>64.68552660313826</v>
@@ -3719,16 +3719,16 @@
         <v>4.894765047516295</v>
       </c>
       <c r="K63" t="n">
-        <v>64.57136738482359</v>
+        <v>64.57136738482305</v>
       </c>
       <c r="L63" t="n">
-        <v>4.684146912243799</v>
+        <v>4.684146912243404</v>
       </c>
       <c r="M63" t="n">
-        <v>0.09676378829958929</v>
+        <v>0.09676378829960797</v>
       </c>
       <c r="N63" t="n">
-        <v>0.2196418130776825</v>
+        <v>0.2196418130781948</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003212000000019088</v>
+        <v>0.0001923999999995374</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.003697627891110895</v>
       </c>
       <c r="F64" t="n">
-        <v>9.992553981377629</v>
+        <v>9.99255398137784</v>
       </c>
       <c r="G64" t="n">
-        <v>5.946967478638764</v>
+        <v>5.94696747863879</v>
       </c>
       <c r="H64" t="n">
-        <v>8.634000511693131</v>
+        <v>8.634000511692596</v>
       </c>
       <c r="I64" t="n">
         <v>7.285415246674767</v>
@@ -3771,16 +3771,16 @@
         <v>18.11323190547886</v>
       </c>
       <c r="K64" t="n">
-        <v>7.234765954638864</v>
+        <v>7.234765954638839</v>
       </c>
       <c r="L64" t="n">
-        <v>17.82313196750882</v>
+        <v>17.82313196750839</v>
       </c>
       <c r="M64" t="n">
-        <v>0.08163385155979544</v>
+        <v>0.08163385155979733</v>
       </c>
       <c r="N64" t="n">
-        <v>0.1088989457193565</v>
+        <v>0.1088989457195535</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002999000000016849</v>
+        <v>0.0002834999999983268</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.6416935960554256</v>
       </c>
       <c r="F65" t="n">
-        <v>9.256721987304909</v>
+        <v>9.256721987304047</v>
       </c>
       <c r="G65" t="n">
-        <v>100.9036296108432</v>
+        <v>100.9036296108425</v>
       </c>
       <c r="H65" t="n">
-        <v>6.590470368344127</v>
+        <v>6.590470368343167</v>
       </c>
       <c r="I65" t="n">
         <v>60.6583617383578</v>
@@ -3823,16 +3823,16 @@
         <v>11.86528034063046</v>
       </c>
       <c r="K65" t="n">
-        <v>60.35963106127729</v>
+        <v>60.35963106127687</v>
       </c>
       <c r="L65" t="n">
-        <v>10.40090611671689</v>
+        <v>10.40090611671565</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1225250042281966</v>
+        <v>0.1225250042282168</v>
       </c>
       <c r="N65" t="n">
-        <v>0.6856389693355518</v>
+        <v>0.6856389693361193</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002904999999913116</v>
+        <v>0.0002043000000000461</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.6699031182305</v>
       </c>
       <c r="F66" t="n">
-        <v>9.79233528110926</v>
+        <v>9.792335281109054</v>
       </c>
       <c r="G66" t="n">
-        <v>67.45661736498944</v>
+        <v>67.45661736498928</v>
       </c>
       <c r="H66" t="n">
-        <v>9.843420404399662</v>
+        <v>9.843420404399353</v>
       </c>
       <c r="I66" t="n">
         <v>45.8459076388655</v>
@@ -3875,16 +3875,16 @@
         <v>16.86218162216168</v>
       </c>
       <c r="K66" t="n">
-        <v>45.77073736220116</v>
+        <v>45.7707373622011</v>
       </c>
       <c r="L66" t="n">
-        <v>16.77970724473305</v>
+        <v>16.77970724473257</v>
       </c>
       <c r="M66" t="n">
-        <v>0.1159271728818887</v>
+        <v>0.1159271728818972</v>
       </c>
       <c r="N66" t="n">
-        <v>0.05622287114669081</v>
+        <v>0.05622287114667683</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0005840000000034706</v>
+        <v>0.0001858999999981847</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.2500994469398075</v>
       </c>
       <c r="F67" t="n">
-        <v>9.963442624195364</v>
+        <v>9.963442624195247</v>
       </c>
       <c r="G67" t="n">
-        <v>40.36507803872215</v>
+        <v>40.36507803872092</v>
       </c>
       <c r="H67" t="n">
-        <v>3.015926793801439</v>
+        <v>3.015926793801485</v>
       </c>
       <c r="I67" t="n">
         <v>19.57687427078943</v>
@@ -3927,16 +3927,16 @@
         <v>11.16212898988536</v>
       </c>
       <c r="K67" t="n">
-        <v>19.39760252913588</v>
+        <v>19.3976025291358</v>
       </c>
       <c r="L67" t="n">
-        <v>10.71259044843931</v>
+        <v>10.71259044843928</v>
       </c>
       <c r="M67" t="n">
-        <v>0.09476774007924278</v>
+        <v>0.094767740079244</v>
       </c>
       <c r="N67" t="n">
-        <v>0.404357314431973</v>
+        <v>0.4043573144319267</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003161000000062586</v>
+        <v>0.0001896999999999593</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.5753156907807</v>
       </c>
       <c r="F68" t="n">
-        <v>9.643376220876037</v>
+        <v>9.643376220876078</v>
       </c>
       <c r="G68" t="n">
-        <v>26.38035570473222</v>
+        <v>26.38035570473246</v>
       </c>
       <c r="H68" t="n">
-        <v>5.069871802477881</v>
+        <v>5.069871802477842</v>
       </c>
       <c r="I68" t="n">
         <v>16.96964631110587</v>
@@ -3979,16 +3979,16 @@
         <v>12.83113260813786</v>
       </c>
       <c r="K68" t="n">
-        <v>16.9478426464157</v>
+        <v>16.94784264641572</v>
       </c>
       <c r="L68" t="n">
-        <v>13.04352203888733</v>
+        <v>13.04352203888732</v>
       </c>
       <c r="M68" t="n">
         <v>0.1059189491773683</v>
       </c>
       <c r="N68" t="n">
-        <v>0.3205591125935905</v>
+        <v>0.3205591125935552</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003054000000020096</v>
+        <v>0.0001945000000027619</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.6614433543339</v>
       </c>
       <c r="F69" t="n">
-        <v>9.513495542509151</v>
+        <v>9.513495542509997</v>
       </c>
       <c r="G69" t="n">
-        <v>97.45263647676452</v>
+        <v>97.45263647676504</v>
       </c>
       <c r="H69" t="n">
-        <v>12.6967046079259</v>
+        <v>12.69670460792738</v>
       </c>
       <c r="I69" t="n">
         <v>73.30159050095429</v>
@@ -4031,16 +4031,16 @@
         <v>17.71985515776622</v>
       </c>
       <c r="K69" t="n">
-        <v>73.12503250497662</v>
+        <v>73.12503250497677</v>
       </c>
       <c r="L69" t="n">
-        <v>16.9515009177127</v>
+        <v>16.95150091771451</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1149384008070732</v>
+        <v>0.1149384008070407</v>
       </c>
       <c r="N69" t="n">
-        <v>0.2509513359821605</v>
+        <v>0.2509513359816637</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0008673000000101183</v>
+        <v>0.0002417000000001224</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.2833429093115037</v>
       </c>
       <c r="F70" t="n">
-        <v>9.94103137553366</v>
+        <v>9.941031375533534</v>
       </c>
       <c r="G70" t="n">
-        <v>48.91820563354807</v>
+        <v>48.91820563354756</v>
       </c>
       <c r="H70" t="n">
-        <v>3.044990938609595</v>
+        <v>3.044990938609521</v>
       </c>
       <c r="I70" t="n">
         <v>22.43075918953557</v>
@@ -4083,16 +4083,16 @@
         <v>11.12306944814092</v>
       </c>
       <c r="K70" t="n">
-        <v>22.22474158519673</v>
+        <v>22.22474158519661</v>
       </c>
       <c r="L70" t="n">
-        <v>10.50625169772858</v>
+        <v>10.50625169772841</v>
       </c>
       <c r="M70" t="n">
-        <v>0.1010662517108897</v>
+        <v>0.1010662517108924</v>
       </c>
       <c r="N70" t="n">
-        <v>0.5372798431660517</v>
+        <v>0.5372798431661465</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003104999999976599</v>
+        <v>0.0001941000000016402</v>
       </c>
     </row>
     <row r="71">
@@ -4120,31 +4120,31 @@
         <v>359.7253478704356</v>
       </c>
       <c r="F71" t="n">
-        <v>9.558739214899159</v>
+        <v>9.558739214898628</v>
       </c>
       <c r="G71" t="n">
-        <v>52.53938077027284</v>
+        <v>52.539380770272</v>
       </c>
       <c r="H71" t="n">
-        <v>12.39190374874294</v>
+        <v>12.39190374874219</v>
       </c>
       <c r="I71" t="n">
-        <v>39.09766949772916</v>
+        <v>39.09766949772915</v>
       </c>
       <c r="J71" t="n">
         <v>21.2511977384674</v>
       </c>
       <c r="K71" t="n">
-        <v>38.96218601607653</v>
+        <v>38.96218601607629</v>
       </c>
       <c r="L71" t="n">
-        <v>20.55994206675951</v>
+        <v>20.55994206675828</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1063947146119313</v>
+        <v>0.1063947146119436</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1700610256438469</v>
+        <v>0.1700610256441763</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002977000000043972</v>
+        <v>0.0002247999999980266</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.7447007775094</v>
       </c>
       <c r="F72" t="n">
-        <v>9.874220509100731</v>
+        <v>9.87422050909816</v>
       </c>
       <c r="G72" t="n">
-        <v>166.7332000626867</v>
+        <v>166.7332000626881</v>
       </c>
       <c r="H72" t="n">
-        <v>13.29982975147822</v>
+        <v>13.29982975147408</v>
       </c>
       <c r="I72" t="n">
         <v>150.0337683635548</v>
@@ -4187,16 +4187,16 @@
         <v>9.651912212970135</v>
       </c>
       <c r="K72" t="n">
-        <v>149.943986702284</v>
+        <v>149.9439867022852</v>
       </c>
       <c r="L72" t="n">
-        <v>9.561819629449412</v>
+        <v>9.561819629446772</v>
       </c>
       <c r="M72" t="n">
-        <v>0.1203647801608043</v>
+        <v>0.1203647801609007</v>
       </c>
       <c r="N72" t="n">
-        <v>0.07475588855945112</v>
+        <v>0.07475588856035109</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002840999999875748</v>
+        <v>0.0001870000000003813</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.1291809449189355</v>
       </c>
       <c r="F73" t="n">
-        <v>9.909600273041026</v>
+        <v>9.90960027304075</v>
       </c>
       <c r="G73" t="n">
-        <v>33.48605547471801</v>
+        <v>33.48605547471693</v>
       </c>
       <c r="H73" t="n">
-        <v>7.214093012635264</v>
+        <v>7.214093012635334</v>
       </c>
       <c r="I73" t="n">
         <v>22.46395608561936</v>
@@ -4239,16 +4239,16 @@
         <v>16.27104575612665</v>
       </c>
       <c r="K73" t="n">
-        <v>22.35672099073411</v>
+        <v>22.35672099073397</v>
       </c>
       <c r="L73" t="n">
-        <v>15.69282396902304</v>
+        <v>15.6928239690229</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0906323746094871</v>
+        <v>0.09063237460948838</v>
       </c>
       <c r="N73" t="n">
-        <v>0.2272171873176876</v>
+        <v>0.2272171873176875</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003300999999993337</v>
+        <v>0.0001872000000027185</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9044363502803</v>
       </c>
       <c r="F74" t="n">
-        <v>9.755673334918749</v>
+        <v>9.755673334918745</v>
       </c>
       <c r="G74" t="n">
-        <v>18.91322173479988</v>
+        <v>18.91322173479992</v>
       </c>
       <c r="H74" t="n">
-        <v>11.13562003274086</v>
+        <v>11.13562003274072</v>
       </c>
       <c r="I74" t="n">
         <v>15.57133329969279</v>
@@ -4291,16 +4291,16 @@
         <v>20.85419847183129</v>
       </c>
       <c r="K74" t="n">
-        <v>15.4996802005212</v>
+        <v>15.49968020052118</v>
       </c>
       <c r="L74" t="n">
-        <v>20.52712626237507</v>
+        <v>20.52712626237489</v>
       </c>
       <c r="M74" t="n">
-        <v>0.09331971346139764</v>
+        <v>0.0933197134613989</v>
       </c>
       <c r="N74" t="n">
-        <v>0.06859980546068534</v>
+        <v>0.06859980546073909</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002978999999925236</v>
+        <v>0.0002457999999982974</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.826956084607</v>
       </c>
       <c r="F75" t="n">
-        <v>9.908342157111871</v>
+        <v>9.908342157110173</v>
       </c>
       <c r="G75" t="n">
-        <v>115.3389750383955</v>
+        <v>115.3389750383945</v>
       </c>
       <c r="H75" t="n">
-        <v>9.414888961413094</v>
+        <v>9.414888961410893</v>
       </c>
       <c r="I75" t="n">
         <v>77.81913838663891</v>
@@ -4343,16 +4343,16 @@
         <v>11.66724248977646</v>
       </c>
       <c r="K75" t="n">
-        <v>77.78801468896495</v>
+        <v>77.78801468896444</v>
       </c>
       <c r="L75" t="n">
-        <v>11.61425790681744</v>
+        <v>11.61425790681511</v>
       </c>
       <c r="M75" t="n">
-        <v>0.08842842446070068</v>
+        <v>0.08842842446073568</v>
       </c>
       <c r="N75" t="n">
-        <v>0.03680890693075255</v>
+        <v>0.03680890693181987</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0002870999999942114</v>
+        <v>0.0001837999999985129</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.8174963518577</v>
       </c>
       <c r="F76" t="n">
-        <v>9.705341748666912</v>
+        <v>9.705341748666138</v>
       </c>
       <c r="G76" t="n">
-        <v>35.99794543116243</v>
+        <v>35.99794543116133</v>
       </c>
       <c r="H76" t="n">
-        <v>12.18347049957735</v>
+        <v>12.18347049957628</v>
       </c>
       <c r="I76" t="n">
         <v>27.32317301036183</v>
@@ -4395,16 +4395,16 @@
         <v>21.80818795837916</v>
       </c>
       <c r="K76" t="n">
-        <v>27.22518226167491</v>
+        <v>27.2251822616746</v>
       </c>
       <c r="L76" t="n">
-        <v>21.27403561278301</v>
+        <v>21.27403561278108</v>
       </c>
       <c r="M76" t="n">
-        <v>0.08735091575890884</v>
+        <v>0.08735091575892616</v>
       </c>
       <c r="N76" t="n">
-        <v>0.1218195806162259</v>
+        <v>0.1218195806166947</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003276000000056456</v>
+        <v>0.0002016000000004681</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.2128506401928187</v>
       </c>
       <c r="F77" t="n">
-        <v>9.86549228803235</v>
+        <v>9.865492288031513</v>
       </c>
       <c r="G77" t="n">
-        <v>104.9044239285482</v>
+        <v>104.9044239285487</v>
       </c>
       <c r="H77" t="n">
-        <v>3.583755602235451</v>
+        <v>3.583755602234833</v>
       </c>
       <c r="I77" t="n">
         <v>41.23088095385175</v>
@@ -4447,16 +4447,16 @@
         <v>8.517806771190989</v>
       </c>
       <c r="K77" t="n">
-        <v>41.12169532509523</v>
+        <v>41.12169532509454</v>
       </c>
       <c r="L77" t="n">
-        <v>8.154549260893502</v>
+        <v>8.154549260892505</v>
       </c>
       <c r="M77" t="n">
-        <v>0.09482850453741823</v>
+        <v>0.09482850453743888</v>
       </c>
       <c r="N77" t="n">
-        <v>0.2977785062468624</v>
+        <v>0.297778506247648</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003712999999976319</v>
+        <v>0.0001927999999971064</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.7179096067844</v>
       </c>
       <c r="F78" t="n">
-        <v>9.66707724841854</v>
+        <v>9.667077248418366</v>
       </c>
       <c r="G78" t="n">
-        <v>55.44576090008424</v>
+        <v>55.44576090008371</v>
       </c>
       <c r="H78" t="n">
-        <v>12.58283645452196</v>
+        <v>12.5828364545219</v>
       </c>
       <c r="I78" t="n">
         <v>41.02759868558736</v>
@@ -4499,16 +4499,16 @@
         <v>21.21280471567252</v>
       </c>
       <c r="K78" t="n">
-        <v>40.9683403436917</v>
+        <v>40.9683403436916</v>
       </c>
       <c r="L78" t="n">
-        <v>20.67984322168489</v>
+        <v>20.67984322168474</v>
       </c>
       <c r="M78" t="n">
-        <v>0.09650892728316744</v>
+        <v>0.09650892728316612</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1170285317426841</v>
+        <v>0.117028531742748</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.000300699999996823</v>
+        <v>0.00058469999999744</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9326665443774</v>
       </c>
       <c r="F79" t="n">
-        <v>9.82791912228954</v>
+        <v>9.827919122284523</v>
       </c>
       <c r="G79" t="n">
-        <v>165.4470545053619</v>
+        <v>165.4470545053653</v>
       </c>
       <c r="H79" t="n">
-        <v>10.48007151409771</v>
+        <v>10.48007151409083</v>
       </c>
       <c r="I79" t="n">
         <v>138.9401716507728</v>
@@ -4551,16 +4551,16 @@
         <v>6.69919649565565</v>
       </c>
       <c r="K79" t="n">
-        <v>138.9580200953347</v>
+        <v>138.9580200953371</v>
       </c>
       <c r="L79" t="n">
-        <v>6.57763764043866</v>
+        <v>6.577637640434719</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0928060912755474</v>
+        <v>0.09280609127563387</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08772678680267462</v>
+        <v>0.087726786805952</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003456000000028325</v>
+        <v>0.0002448000000008221</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9633861588326</v>
       </c>
       <c r="F80" t="n">
-        <v>9.956569276992489</v>
+        <v>9.956569276992544</v>
       </c>
       <c r="G80" t="n">
-        <v>8.612970502726563</v>
+        <v>8.612970502726768</v>
       </c>
       <c r="H80" t="n">
-        <v>10.733026430795</v>
+        <v>10.73302643079558</v>
       </c>
       <c r="I80" t="n">
         <v>8.792537788842502</v>
@@ -4603,16 +4603,16 @@
         <v>20.88161751407274</v>
       </c>
       <c r="K80" t="n">
-        <v>8.758810723762167</v>
+        <v>8.75881072376227</v>
       </c>
       <c r="L80" t="n">
-        <v>20.31145654798233</v>
+        <v>20.31145654798309</v>
       </c>
       <c r="M80" t="n">
-        <v>0.09312634649935908</v>
+        <v>0.09312634649935292</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1535657638510269</v>
+        <v>0.1535657638508026</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003068999999982225</v>
+        <v>0.0002324000000015758</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.9949076462310189</v>
       </c>
       <c r="F81" t="n">
-        <v>8.975217742853097</v>
+        <v>8.975217742853136</v>
       </c>
       <c r="G81" t="n">
-        <v>91.09021084783812</v>
+        <v>91.09021084783832</v>
       </c>
       <c r="H81" t="n">
-        <v>6.843560181234745</v>
+        <v>6.843560181234772</v>
       </c>
       <c r="I81" t="n">
         <v>57.39789300421757</v>
@@ -4655,16 +4655,16 @@
         <v>13.66352932901044</v>
       </c>
       <c r="K81" t="n">
-        <v>56.96706366962594</v>
+        <v>56.96706366962597</v>
       </c>
       <c r="L81" t="n">
-        <v>11.37591433149432</v>
+        <v>11.37591433149436</v>
       </c>
       <c r="M81" t="n">
-        <v>0.1740160892976731</v>
+        <v>0.1740160892976729</v>
       </c>
       <c r="N81" t="n">
-        <v>0.9254713087117469</v>
+        <v>0.9254713087117326</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002924000000064098</v>
+        <v>0.0001906999999974346</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.4300441191555</v>
       </c>
       <c r="F82" t="n">
-        <v>9.96378120429336</v>
+        <v>9.963781204289935</v>
       </c>
       <c r="G82" t="n">
-        <v>93.32575413324946</v>
+        <v>93.32575413324662</v>
       </c>
       <c r="H82" t="n">
-        <v>11.63617995638929</v>
+        <v>11.63617995638412</v>
       </c>
       <c r="I82" t="n">
         <v>66.48783954982605</v>
@@ -4707,16 +4707,16 @@
         <v>16.15039452812126</v>
       </c>
       <c r="K82" t="n">
-        <v>66.46856042651454</v>
+        <v>66.46856042651362</v>
       </c>
       <c r="L82" t="n">
-        <v>16.37278129259337</v>
+        <v>16.37278129258682</v>
       </c>
       <c r="M82" t="n">
-        <v>0.1192499017049509</v>
+        <v>0.1192499017050682</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09663562555890828</v>
+        <v>0.09663562555740311</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002922000000040725</v>
+        <v>0.000186499999998091</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.4079701026656091</v>
       </c>
       <c r="F83" t="n">
-        <v>9.832065310962014</v>
+        <v>9.832065310961724</v>
       </c>
       <c r="G83" t="n">
-        <v>65.00583867785076</v>
+        <v>65.00583867785024</v>
       </c>
       <c r="H83" t="n">
-        <v>6.497918212957389</v>
+        <v>6.497918212957108</v>
       </c>
       <c r="I83" t="n">
         <v>38.4159118793041</v>
@@ -4759,16 +4759,16 @@
         <v>14.1881020213233</v>
       </c>
       <c r="K83" t="n">
-        <v>38.32469402787611</v>
+        <v>38.32469402787594</v>
       </c>
       <c r="L83" t="n">
-        <v>13.39703906651556</v>
+        <v>13.39703906651506</v>
       </c>
       <c r="M83" t="n">
-        <v>0.1010780321407487</v>
+        <v>0.1010780321407535</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3503238500111304</v>
+        <v>0.3503238500113174</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003215999999923724</v>
+        <v>0.0002392000000028816</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.7478048791732</v>
       </c>
       <c r="F84" t="n">
-        <v>9.702256130287338</v>
+        <v>9.702256130285829</v>
       </c>
       <c r="G84" t="n">
-        <v>48.84108815601028</v>
+        <v>48.84108815600841</v>
       </c>
       <c r="H84" t="n">
-        <v>10.60954643872072</v>
+        <v>10.60954643871845</v>
       </c>
       <c r="I84" t="n">
         <v>34.81590641774923</v>
@@ -4811,16 +4811,16 @@
         <v>19.11454519061216</v>
       </c>
       <c r="K84" t="n">
-        <v>34.71156974210013</v>
+        <v>34.71156974209952</v>
       </c>
       <c r="L84" t="n">
-        <v>18.81320772228164</v>
+        <v>18.81320772227785</v>
       </c>
       <c r="M84" t="n">
-        <v>0.1042223189821996</v>
+        <v>0.1042223189822451</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08419074009824332</v>
+        <v>0.08419074009930132</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002929999999992106</v>
+        <v>0.0002200999999999453</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.7452061341889</v>
       </c>
       <c r="F85" t="n">
-        <v>9.646169954195212</v>
+        <v>9.646169954195408</v>
       </c>
       <c r="G85" t="n">
-        <v>45.59878687593198</v>
+        <v>45.59878687593203</v>
       </c>
       <c r="H85" t="n">
-        <v>11.03380932832112</v>
+        <v>11.03380932832156</v>
       </c>
       <c r="I85" t="n">
         <v>33.13287081288786</v>
@@ -4863,16 +4863,16 @@
         <v>19.91760304290331</v>
       </c>
       <c r="K85" t="n">
-        <v>33.01492438304464</v>
+        <v>33.01492438304469</v>
       </c>
       <c r="L85" t="n">
-        <v>19.43148183946193</v>
+        <v>19.4314818394626</v>
       </c>
       <c r="M85" t="n">
-        <v>0.09845088266711392</v>
+        <v>0.09845088266710489</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1251797784840813</v>
+        <v>0.1251797784839118</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002946000000036975</v>
+        <v>0.0001938000000016871</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.0394836605926723</v>
       </c>
       <c r="F86" t="n">
-        <v>9.861765140365806</v>
+        <v>9.861765140365693</v>
       </c>
       <c r="G86" t="n">
-        <v>7.894673967583966</v>
+        <v>7.894673967583737</v>
       </c>
       <c r="H86" t="n">
-        <v>7.393561541677123</v>
+        <v>7.393561541677075</v>
       </c>
       <c r="I86" t="n">
         <v>8.615529210004841</v>
@@ -4915,16 +4915,16 @@
         <v>16.40699998673912</v>
       </c>
       <c r="K86" t="n">
-        <v>8.498753956127127</v>
+        <v>8.498753956127063</v>
       </c>
       <c r="L86" t="n">
-        <v>16.21160320475851</v>
+        <v>16.21160320475834</v>
       </c>
       <c r="M86" t="n">
-        <v>0.1024175363550325</v>
+        <v>0.1024175363550343</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0754352838447277</v>
+        <v>0.07543528384478812</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003245000000049458</v>
+        <v>0.0001879000000002407</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9469447836763</v>
       </c>
       <c r="F87" t="n">
-        <v>9.704849644226389</v>
+        <v>9.704849644225188</v>
       </c>
       <c r="G87" t="n">
-        <v>111.3157904332039</v>
+        <v>111.3157904332032</v>
       </c>
       <c r="H87" t="n">
-        <v>8.764564108151891</v>
+        <v>8.764564108150356</v>
       </c>
       <c r="I87" t="n">
         <v>73.53144854422638</v>
@@ -4967,16 +4967,16 @@
         <v>11.81175051977503</v>
       </c>
       <c r="K87" t="n">
-        <v>73.40892779192068</v>
+        <v>73.40892779192032</v>
       </c>
       <c r="L87" t="n">
-        <v>11.43555067895918</v>
+        <v>11.43555067895746</v>
       </c>
       <c r="M87" t="n">
-        <v>0.09676253633799849</v>
+        <v>0.09676253633802616</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1866191872442003</v>
+        <v>0.1866191872449661</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002930999999932737</v>
+        <v>0.0001826999999998691</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.1788857156901902</v>
       </c>
       <c r="F88" t="n">
-        <v>9.92862783310378</v>
+        <v>9.928627833103912</v>
       </c>
       <c r="G88" t="n">
-        <v>36.98197379225977</v>
+        <v>36.98197379226018</v>
       </c>
       <c r="H88" t="n">
-        <v>5.04995962814829</v>
+        <v>5.049959628148378</v>
       </c>
       <c r="I88" t="n">
         <v>21.84848718910419</v>
@@ -5019,16 +5019,16 @@
         <v>13.65786460130007</v>
       </c>
       <c r="K88" t="n">
-        <v>21.7431742833958</v>
+        <v>21.74317428339588</v>
       </c>
       <c r="L88" t="n">
-        <v>13.08392994243992</v>
+        <v>13.08392994244014</v>
       </c>
       <c r="M88" t="n">
-        <v>0.09528407918194838</v>
+        <v>0.09528407918194606</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3075190247672928</v>
+        <v>0.3075190247672153</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002939999999966858</v>
+        <v>0.0002434999999998411</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.888287343744</v>
       </c>
       <c r="F89" t="n">
-        <v>8.687606261589865</v>
+        <v>8.687606261605076</v>
       </c>
       <c r="G89" t="n">
-        <v>117.4662644901829</v>
+        <v>117.466264490191</v>
       </c>
       <c r="H89" t="n">
-        <v>12.13032187776265</v>
+        <v>12.13032187778999</v>
       </c>
       <c r="I89" t="n">
         <v>92.7668218217183</v>
@@ -5071,16 +5071,16 @@
         <v>16.49115940110462</v>
       </c>
       <c r="K89" t="n">
-        <v>92.61497322868614</v>
+        <v>92.61497322868803</v>
       </c>
       <c r="L89" t="n">
-        <v>14.08380880372081</v>
+        <v>14.08380880374898</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1191514382553699</v>
+        <v>0.1191514382547246</v>
       </c>
       <c r="N89" t="n">
-        <v>0.7003995511872103</v>
+        <v>0.700399551178958</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003554999999977326</v>
+        <v>0.0001937999999981344</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9679347087545</v>
       </c>
       <c r="F90" t="n">
-        <v>9.753745150510339</v>
+        <v>9.753745150510817</v>
       </c>
       <c r="G90" t="n">
-        <v>116.3637486914251</v>
+        <v>116.3637486914254</v>
       </c>
       <c r="H90" t="n">
-        <v>8.782547909707878</v>
+        <v>8.782547909708468</v>
       </c>
       <c r="I90" t="n">
         <v>77.06502614626034</v>
@@ -5123,16 +5123,16 @@
         <v>11.20723949811577</v>
       </c>
       <c r="K90" t="n">
-        <v>76.95750390083884</v>
+        <v>76.957503900839</v>
       </c>
       <c r="L90" t="n">
-        <v>10.88881555482418</v>
+        <v>10.8888155548248</v>
       </c>
       <c r="M90" t="n">
-        <v>0.09407959368936369</v>
+        <v>0.09407959368935463</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1625606964126814</v>
+        <v>0.1625606964123835</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003791999999975815</v>
+        <v>0.000183700000000897</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.5081190079641331</v>
       </c>
       <c r="F91" t="n">
-        <v>9.584550580286674</v>
+        <v>9.584550580284636</v>
       </c>
       <c r="G91" t="n">
-        <v>91.6076664846611</v>
+        <v>91.60766648465743</v>
       </c>
       <c r="H91" t="n">
-        <v>5.370375005284473</v>
+        <v>5.370375005282683</v>
       </c>
       <c r="I91" t="n">
         <v>48.84601329812367</v>
@@ -5175,16 +5175,16 @@
         <v>11.23051578470421</v>
       </c>
       <c r="K91" t="n">
-        <v>48.59636009448967</v>
+        <v>48.59636009448828</v>
       </c>
       <c r="L91" t="n">
-        <v>10.26220906762863</v>
+        <v>10.26220906762598</v>
       </c>
       <c r="M91" t="n">
-        <v>0.1119002525927785</v>
+        <v>0.1119002525928234</v>
       </c>
       <c r="N91" t="n">
-        <v>0.5362847252902581</v>
+        <v>0.5362847252916373</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003048999999890611</v>
+        <v>0.0001886999999989314</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.06734600045980398</v>
       </c>
       <c r="F92" t="n">
-        <v>9.84430789830259</v>
+        <v>9.84430789830267</v>
       </c>
       <c r="G92" t="n">
-        <v>27.05015276704103</v>
+        <v>27.05015276704124</v>
       </c>
       <c r="H92" t="n">
-        <v>4.684699972837087</v>
+        <v>4.684699972837175</v>
       </c>
       <c r="I92" t="n">
         <v>17.15395993153109</v>
@@ -5227,16 +5227,16 @@
         <v>13.17470023696191</v>
       </c>
       <c r="K92" t="n">
-        <v>16.99178090677071</v>
+        <v>16.99178090677077</v>
       </c>
       <c r="L92" t="n">
-        <v>12.79308096416655</v>
+        <v>12.79308096416673</v>
       </c>
       <c r="M92" t="n">
-        <v>0.09860598272978627</v>
+        <v>0.09860598272978406</v>
       </c>
       <c r="N92" t="n">
-        <v>0.2073614340550717</v>
+        <v>0.2073614340549846</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0008540999999979704</v>
+        <v>0.0001902000000022497</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.1818363053204348</v>
       </c>
       <c r="F93" t="n">
-        <v>9.857121587204785</v>
+        <v>9.857121587205315</v>
       </c>
       <c r="G93" t="n">
-        <v>36.28248612365907</v>
+        <v>36.28248612366009</v>
       </c>
       <c r="H93" t="n">
-        <v>6.459705315669769</v>
+        <v>6.459705315670352</v>
       </c>
       <c r="I93" t="n">
         <v>23.34892049549794</v>
@@ -5279,16 +5279,16 @@
         <v>15.37253312835461</v>
       </c>
       <c r="K93" t="n">
-        <v>23.22635849272346</v>
+        <v>23.22635849272379</v>
       </c>
       <c r="L93" t="n">
-        <v>14.67906208332057</v>
+        <v>14.67906208332171</v>
       </c>
       <c r="M93" t="n">
-        <v>0.08970992560392381</v>
+        <v>0.08970992560391471</v>
       </c>
       <c r="N93" t="n">
-        <v>0.2841498340113829</v>
+        <v>0.28414983401099</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003233999999991966</v>
+        <v>0.0002378000000007319</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9309102274653</v>
       </c>
       <c r="F94" t="n">
-        <v>9.904251951660433</v>
+        <v>9.90425195166649</v>
       </c>
       <c r="G94" t="n">
-        <v>159.444315737419</v>
+        <v>159.4443157374165</v>
       </c>
       <c r="H94" t="n">
-        <v>12.3228674181388</v>
+        <v>12.32286741814816</v>
       </c>
       <c r="I94" t="n">
         <v>135.8914103371119</v>
@@ -5331,16 +5331,16 @@
         <v>9.221215218233809</v>
       </c>
       <c r="K94" t="n">
-        <v>135.9205700764032</v>
+        <v>135.9205700764011</v>
       </c>
       <c r="L94" t="n">
-        <v>9.12901036066523</v>
+        <v>9.129010360671444</v>
       </c>
       <c r="M94" t="n">
-        <v>0.08424484588524318</v>
+        <v>0.0842448458851211</v>
       </c>
       <c r="N94" t="n">
-        <v>0.05241515376950224</v>
+        <v>0.05241515376605225</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002881000000058975</v>
+        <v>0.0001823000000023001</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.5109405758969</v>
       </c>
       <c r="F95" t="n">
-        <v>9.940501968967467</v>
+        <v>9.94050196896702</v>
       </c>
       <c r="G95" t="n">
-        <v>108.3887609781718</v>
+        <v>108.3887609781714</v>
       </c>
       <c r="H95" t="n">
-        <v>11.03220828447748</v>
+        <v>11.03220828447684</v>
       </c>
       <c r="I95" t="n">
         <v>77.08991880558148</v>
@@ -5383,16 +5383,16 @@
         <v>13.86645042167153</v>
       </c>
       <c r="K95" t="n">
-        <v>77.01385196493169</v>
+        <v>77.01385196493153</v>
       </c>
       <c r="L95" t="n">
-        <v>14.00648689920174</v>
+        <v>14.00648689920104</v>
       </c>
       <c r="M95" t="n">
-        <v>0.1084819351773017</v>
+        <v>0.1084819351773141</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08733802030265114</v>
+        <v>0.08733802030247556</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003061999999971476</v>
+        <v>0.0001819000000011783</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.776964035346</v>
       </c>
       <c r="F96" t="n">
-        <v>9.731874009773577</v>
+        <v>9.731874009765095</v>
       </c>
       <c r="G96" t="n">
-        <v>129.0153129073171</v>
+        <v>129.0153129073156</v>
       </c>
       <c r="H96" t="n">
-        <v>9.989650598149419</v>
+        <v>9.98965059813761</v>
       </c>
       <c r="I96" t="n">
         <v>92.4963307677606</v>
@@ -5435,16 +5435,16 @@
         <v>10.70698393477249</v>
       </c>
       <c r="K96" t="n">
-        <v>92.36296729852432</v>
+        <v>92.36296729852295</v>
       </c>
       <c r="L96" t="n">
-        <v>10.45554474151843</v>
+        <v>10.45554474150765</v>
       </c>
       <c r="M96" t="n">
-        <v>0.1028122155696101</v>
+        <v>0.1028122155698264</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1565152772212708</v>
+        <v>0.1565152772262068</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003236000000015338</v>
+        <v>0.0001831000000009908</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.1992866698657448</v>
       </c>
       <c r="F97" t="n">
-        <v>9.924384318026274</v>
+        <v>9.924384318026144</v>
       </c>
       <c r="G97" t="n">
-        <v>41.58565016286731</v>
+        <v>41.58565016286611</v>
       </c>
       <c r="H97" t="n">
-        <v>4.925265762201585</v>
+        <v>4.925265762201712</v>
       </c>
       <c r="I97" t="n">
         <v>23.74542453059524</v>
@@ -5487,16 +5487,16 @@
         <v>13.28409758323217</v>
       </c>
       <c r="K97" t="n">
-        <v>23.61538934022743</v>
+        <v>23.61538934022734</v>
       </c>
       <c r="L97" t="n">
-        <v>12.80065869775636</v>
+        <v>12.80065869775642</v>
       </c>
       <c r="M97" t="n">
-        <v>0.08971458505502095</v>
+        <v>0.08971458505502072</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2747903465600878</v>
+        <v>0.2747903465600112</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.000294199999999023</v>
+        <v>0.0002373999999996101</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9790456675702</v>
       </c>
       <c r="F98" t="n">
-        <v>9.673541112775178</v>
+        <v>9.67354111277559</v>
       </c>
       <c r="G98" t="n">
-        <v>38.3036237221605</v>
+        <v>38.30362372216103</v>
       </c>
       <c r="H98" t="n">
-        <v>13.34472302280187</v>
+        <v>13.34472302280251</v>
       </c>
       <c r="I98" t="n">
         <v>29.58813609103335</v>
@@ -5539,16 +5539,16 @@
         <v>23.48744640074011</v>
       </c>
       <c r="K98" t="n">
-        <v>29.47808192496417</v>
+        <v>29.47808192496433</v>
       </c>
       <c r="L98" t="n">
-        <v>22.54187966834338</v>
+        <v>22.54187966834449</v>
       </c>
       <c r="M98" t="n">
-        <v>0.09193425199380811</v>
+        <v>0.09193425199379865</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2054010909274603</v>
+        <v>0.2054010909272168</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0004332999999974163</v>
+        <v>0.0002233999999994296</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.5253563253876018</v>
       </c>
       <c r="F99" t="n">
-        <v>9.556763689109859</v>
+        <v>9.556763689109461</v>
       </c>
       <c r="G99" t="n">
-        <v>151.226364667212</v>
+        <v>151.2263646672122</v>
       </c>
       <c r="H99" t="n">
-        <v>13.74693122973723</v>
+        <v>13.74693122973652</v>
       </c>
       <c r="I99" t="n">
         <v>129.036147186146</v>
@@ -5591,16 +5591,16 @@
         <v>12.59476915243944</v>
       </c>
       <c r="K99" t="n">
-        <v>129.2646620716914</v>
+        <v>129.2646620716916</v>
       </c>
       <c r="L99" t="n">
-        <v>11.88094135428265</v>
+        <v>11.8809413542821</v>
       </c>
       <c r="M99" t="n">
-        <v>0.1612548397791072</v>
+        <v>0.1612548397791184</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3189588063685264</v>
+        <v>0.3189588063687604</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003154000000051838</v>
+        <v>0.0001808000000025345</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.8578848756203</v>
       </c>
       <c r="F100" t="n">
-        <v>9.612812110603752</v>
+        <v>9.61281211060914</v>
       </c>
       <c r="G100" t="n">
-        <v>131.5094083780109</v>
+        <v>131.5094083780115</v>
       </c>
       <c r="H100" t="n">
-        <v>9.329712539886994</v>
+        <v>9.329712539894217</v>
       </c>
       <c r="I100" t="n">
         <v>92.65513206400841</v>
@@ -5643,16 +5643,16 @@
         <v>9.952434050938109</v>
       </c>
       <c r="K100" t="n">
-        <v>92.54388632667552</v>
+        <v>92.5438863266765</v>
       </c>
       <c r="L100" t="n">
-        <v>9.539843751240451</v>
+        <v>9.539843751246856</v>
       </c>
       <c r="M100" t="n">
-        <v>0.111487134955253</v>
+        <v>0.1114871349551052</v>
       </c>
       <c r="N100" t="n">
-        <v>0.2258651516427888</v>
+        <v>0.2258651516396097</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003025999999977103</v>
+        <v>0.0001822000000011315</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.04270765281058021</v>
       </c>
       <c r="F101" t="n">
-        <v>9.549462223719027</v>
+        <v>9.549462223723918</v>
       </c>
       <c r="G101" t="n">
-        <v>121.0017294850049</v>
+        <v>121.001729485007</v>
       </c>
       <c r="H101" t="n">
-        <v>8.273564506352994</v>
+        <v>8.273564506359051</v>
       </c>
       <c r="I101" t="n">
         <v>79.48494662297404</v>
@@ -5695,16 +5695,16 @@
         <v>10.4553174329922</v>
       </c>
       <c r="K101" t="n">
-        <v>79.36336543215792</v>
+        <v>79.36336543215961</v>
       </c>
       <c r="L101" t="n">
-        <v>9.856979868175879</v>
+        <v>9.85697986818198</v>
       </c>
       <c r="M101" t="n">
-        <v>0.09166551333087486</v>
+        <v>0.09166551333077648</v>
       </c>
       <c r="N101" t="n">
-        <v>0.2906520970752496</v>
+        <v>0.2906520970720883</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002896999999961736</v>
+        <v>0.0001812000000001035</v>
       </c>
     </row>
   </sheetData>
